--- a/06_find_changes/02_change_thresholds_details/08_merge_glb_thresholds/gmw_glb_chng_thresholds.xlsx
+++ b/06_find_changes/02_change_thresholds_details/08_merge_glb_thresholds/gmw_glb_chng_thresholds.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pete/Development/globalmangrovewatch/gmw_jaxa_sar_change_analysis/06_find_changes/02_change_thresholds_details/08_merge_glb_thresholds/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C0D9E8-7EF1-CB4B-9B09-AEC7798C76BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="26480" windowHeight="21800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="global_threshold" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -457,8 +463,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +527,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -567,7 +581,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -599,9 +613,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -633,6 +665,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,14 +858,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -856,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -864,7 +925,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -884,31 +945,31 @@
         <v>1000000</v>
       </c>
       <c r="G3">
-        <v>-16.81710817679563</v>
+        <v>-16.817108176795632</v>
       </c>
       <c r="H3">
         <v>-10.00113864983417</v>
       </c>
       <c r="I3">
-        <v>-25.29431995397561</v>
+        <v>-25.294319953975609</v>
       </c>
       <c r="J3">
-        <v>-23.99489968307888</v>
+        <v>-23.994899683078881</v>
       </c>
       <c r="K3">
-        <v>-15.27201782820097</v>
+        <v>-15.272017828200971</v>
       </c>
       <c r="L3">
         <v>-24.3886507936508</v>
       </c>
       <c r="M3">
-        <v>-20.69293398533007</v>
+        <v>-20.692933985330068</v>
       </c>
       <c r="N3">
         <v>-23.87967592592593</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -928,19 +989,19 @@
         <v>1000000</v>
       </c>
       <c r="G4">
-        <v>-15.23293284432962</v>
+        <v>-15.232932844329619</v>
       </c>
       <c r="H4">
         <v>-10.00789310719472</v>
       </c>
       <c r="I4">
-        <v>-23.9942131960392</v>
+        <v>-23.994213196039201</v>
       </c>
       <c r="J4">
-        <v>-23.9912114515235</v>
+        <v>-23.991211451523501</v>
       </c>
       <c r="K4">
-        <v>-15.98865168539326</v>
+        <v>-15.988651685393259</v>
       </c>
       <c r="L4">
         <v>-12.34227861771058</v>
@@ -949,10 +1010,10 @@
         <v>-22.10370412844037</v>
       </c>
       <c r="N4">
-        <v>-24.94673819742489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>-24.946738197424889</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -978,25 +1039,25 @@
         <v>-12.04028288228432</v>
       </c>
       <c r="I5">
-        <v>-20.39386941707169</v>
+        <v>-20.393869417071691</v>
       </c>
       <c r="J5">
-        <v>-23.71525962520863</v>
+        <v>-23.715259625208631</v>
       </c>
       <c r="K5">
-        <v>-15.22786324786325</v>
+        <v>-15.227863247863249</v>
       </c>
       <c r="L5">
-        <v>-11.02726775956284</v>
+        <v>-11.027267759562839</v>
       </c>
       <c r="M5">
-        <v>-21.05181724845995</v>
+        <v>-21.051817248459951</v>
       </c>
       <c r="N5">
         <v>-21.58064174894217</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1016,31 +1077,31 @@
         <v>1000000</v>
       </c>
       <c r="G6">
-        <v>-15.59049176473406</v>
+        <v>-15.590491764734059</v>
       </c>
       <c r="H6">
         <v>-10.00455919635333</v>
       </c>
       <c r="I6">
-        <v>-20.84713486433382</v>
+        <v>-20.847134864333821</v>
       </c>
       <c r="J6">
-        <v>-23.99863501143725</v>
+        <v>-23.998635011437251</v>
       </c>
       <c r="K6">
-        <v>-15.18398264984227</v>
+        <v>-15.183982649842269</v>
       </c>
       <c r="L6">
-        <v>-2.858930868167201</v>
+        <v>-2.8589308681672012</v>
       </c>
       <c r="M6">
         <v>-21.52694</v>
       </c>
       <c r="N6">
-        <v>-23.57374843554443</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>-23.573748435544431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1060,31 +1121,31 @@
         <v>1000000</v>
       </c>
       <c r="G7">
-        <v>-15.29449262694951</v>
+        <v>-15.294492626949509</v>
       </c>
       <c r="H7">
-        <v>-10.00240720712515</v>
+        <v>-10.002407207125151</v>
       </c>
       <c r="I7">
-        <v>-18.98665587728709</v>
+        <v>-18.986655877287092</v>
       </c>
       <c r="J7">
-        <v>-23.9925330905412</v>
+        <v>-23.992533090541201</v>
       </c>
       <c r="K7">
         <v>-15.9543961352657</v>
       </c>
       <c r="L7">
-        <v>-23.99961965134706</v>
+        <v>-23.999619651347061</v>
       </c>
       <c r="M7">
-        <v>-22.24490842490843</v>
+        <v>-22.244908424908431</v>
       </c>
       <c r="N7">
         <v>-24.34123853211009</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1104,19 +1165,19 @@
         <v>1000000</v>
       </c>
       <c r="G8">
-        <v>-14.91632545978607</v>
+        <v>-14.916325459786069</v>
       </c>
       <c r="H8">
         <v>-11.07996346388045</v>
       </c>
       <c r="I8">
-        <v>-20.35568105159136</v>
+        <v>-20.355681051591361</v>
       </c>
       <c r="J8">
-        <v>-23.54556259875864</v>
+        <v>-23.545562598758639</v>
       </c>
       <c r="K8">
-        <v>-15.49438744257274</v>
+        <v>-15.494387442572741</v>
       </c>
       <c r="L8">
         <v>-11.36264705882353</v>
@@ -1125,10 +1186,10 @@
         <v>-21.33011545293073</v>
       </c>
       <c r="N8">
-        <v>-22.37117892976588</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>-22.371178929765879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1151,28 +1212,28 @@
         <v>-13.29132058198566</v>
       </c>
       <c r="H9">
-        <v>-10.48565314142228</v>
+        <v>-10.485653141422279</v>
       </c>
       <c r="I9">
         <v>-20.40123017058427</v>
       </c>
       <c r="J9">
-        <v>-23.9970403237077</v>
+        <v>-23.997040323707701</v>
       </c>
       <c r="K9">
         <v>-14.55325174825175</v>
       </c>
       <c r="L9">
-        <v>-10.89458163265306</v>
+        <v>-10.894581632653059</v>
       </c>
       <c r="M9">
-        <v>-20.7343879472693</v>
+        <v>-20.734387947269301</v>
       </c>
       <c r="N9">
-        <v>-23.15525725593668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>-23.155257255936679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1192,13 +1253,13 @@
         <v>1000000</v>
       </c>
       <c r="G10">
-        <v>-14.07919173510279</v>
+        <v>-14.079191735102791</v>
       </c>
       <c r="H10">
-        <v>-10.0073965933919</v>
+        <v>-10.007396593391899</v>
       </c>
       <c r="I10">
-        <v>-18.9175303746706</v>
+        <v>-18.917530374670601</v>
       </c>
       <c r="J10">
         <v>-23.83530030863454</v>
@@ -1210,13 +1271,13 @@
         <v>-10.94153761061947</v>
       </c>
       <c r="M10">
-        <v>-20.72414772727273</v>
+        <v>-20.724147727272729</v>
       </c>
       <c r="N10">
         <v>-22.37620027434842</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1239,13 +1300,13 @@
         <v>-17.57275450566452</v>
       </c>
       <c r="H11">
-        <v>-10.00826467266019</v>
+        <v>-10.008264672660189</v>
       </c>
       <c r="I11">
         <v>-29.35577344424744</v>
       </c>
       <c r="J11">
-        <v>-16.79794917918882</v>
+        <v>-16.797949179188819</v>
       </c>
       <c r="K11">
         <v>-16.39157467532468</v>
@@ -1254,13 +1315,13 @@
         <v>-2.879190317195325</v>
       </c>
       <c r="M11">
-        <v>-24.56404958677686</v>
+        <v>-24.564049586776861</v>
       </c>
       <c r="N11">
-        <v>-21.78466292134832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>-21.784662921348321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1280,31 +1341,31 @@
         <v>1000000</v>
       </c>
       <c r="G12">
-        <v>-14.90917450766944</v>
+        <v>-14.909174507669441</v>
       </c>
       <c r="H12">
-        <v>-10.00508208637581</v>
+        <v>-10.005082086375809</v>
       </c>
       <c r="I12">
         <v>-20.73503709618933</v>
       </c>
       <c r="J12">
-        <v>-15.99999990836142</v>
+        <v>-15.999999908361421</v>
       </c>
       <c r="K12">
-        <v>-14.61232330827067</v>
+        <v>-14.612323308270669</v>
       </c>
       <c r="L12">
         <v>-11.97026148969889</v>
       </c>
       <c r="M12">
-        <v>-20.81717692307692</v>
+        <v>-20.817176923076921</v>
       </c>
       <c r="N12">
-        <v>-20.71982097186701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>-20.719820971867009</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1327,28 +1388,28 @@
         <v>-15.5</v>
       </c>
       <c r="H13">
-        <v>-10.00326520646493</v>
+        <v>-10.003265206464929</v>
       </c>
       <c r="I13">
         <v>-23.26125475408768</v>
       </c>
       <c r="J13">
-        <v>-23.99046138997616</v>
+        <v>-23.990461389976161</v>
       </c>
       <c r="K13">
-        <v>-15.24708407871199</v>
+        <v>-15.247084078711991</v>
       </c>
       <c r="L13">
         <v>-23.52793637846656</v>
       </c>
       <c r="M13">
-        <v>-21.90148148148148</v>
+        <v>-21.901481481481479</v>
       </c>
       <c r="N13">
-        <v>-24.27719271623672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>-24.277192716236719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1371,19 +1432,19 @@
         <v>-12.96606880206037</v>
       </c>
       <c r="H14">
-        <v>-10.000410342168</v>
+        <v>-10.000410342167999</v>
       </c>
       <c r="I14">
-        <v>-22.0907451175274</v>
+        <v>-22.090745117527401</v>
       </c>
       <c r="J14">
         <v>-23.99819314897351</v>
       </c>
       <c r="K14">
-        <v>-16.07608938547486</v>
+        <v>-16.076089385474859</v>
       </c>
       <c r="L14">
-        <v>-23.9998150887574</v>
+        <v>-23.999815088757401</v>
       </c>
       <c r="M14">
         <v>-24.11823155216285</v>
@@ -1392,7 +1453,7 @@
         <v>-25.8475</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1415,28 +1476,28 @@
         <v>-16.22245286499636</v>
       </c>
       <c r="H15">
-        <v>-10.00178165722378</v>
+        <v>-10.001781657223781</v>
       </c>
       <c r="I15">
-        <v>-23.09102332460549</v>
+        <v>-23.091023324605491</v>
       </c>
       <c r="J15">
-        <v>-12.01056307099311</v>
+        <v>-12.010563070993109</v>
       </c>
       <c r="K15">
-        <v>-16.64040697674418</v>
+        <v>-16.640406976744181</v>
       </c>
       <c r="L15">
-        <v>-10.46881578947369</v>
+        <v>-10.468815789473689</v>
       </c>
       <c r="M15">
-        <v>-22.56670212765957</v>
+        <v>-22.566702127659571</v>
       </c>
       <c r="N15">
-        <v>-20.274375</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>-20.274374999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1459,28 +1520,28 @@
         <v>-14.95</v>
       </c>
       <c r="H16">
-        <v>-10.28541336593146</v>
+        <v>-10.285413365931459</v>
       </c>
       <c r="I16">
-        <v>-23.75828763974152</v>
+        <v>-23.758287639741521</v>
       </c>
       <c r="J16">
-        <v>-23.99207681850053</v>
+        <v>-23.992076818500529</v>
       </c>
       <c r="K16">
-        <v>-15.94464788732395</v>
+        <v>-15.944647887323949</v>
       </c>
       <c r="L16">
-        <v>-11.83458494208494</v>
+        <v>-11.834584942084939</v>
       </c>
       <c r="M16">
-        <v>-22.28344789356984</v>
+        <v>-22.283447893569839</v>
       </c>
       <c r="N16">
-        <v>-23.84544429708223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>-23.845444297082231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1500,31 +1561,31 @@
         <v>1000000</v>
       </c>
       <c r="G17">
-        <v>-16.30134885389854</v>
+        <v>-16.301348853898538</v>
       </c>
       <c r="H17">
-        <v>-10.06428690472458</v>
+        <v>-10.064286904724581</v>
       </c>
       <c r="I17">
-        <v>-21.58125010094672</v>
+        <v>-21.581250100946718</v>
       </c>
       <c r="J17">
         <v>-23.99615867868155</v>
       </c>
       <c r="K17">
-        <v>-14.15991891891892</v>
+        <v>-14.159918918918921</v>
       </c>
       <c r="L17">
-        <v>-7.219131455399062</v>
+        <v>-7.2191314553990624</v>
       </c>
       <c r="M17">
         <v>-20.61907185628743</v>
       </c>
       <c r="N17">
-        <v>-19.37916436464088</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>-19.379164364640879</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1544,31 +1605,31 @@
         <v>1000000</v>
       </c>
       <c r="G18">
-        <v>-14.13319748099295</v>
+        <v>-14.133197480992949</v>
       </c>
       <c r="H18">
-        <v>-10.00241836019102</v>
+        <v>-10.002418360191021</v>
       </c>
       <c r="I18">
         <v>-18.84585398138471</v>
       </c>
       <c r="J18">
-        <v>-22.75026812046637</v>
+        <v>-22.750268120466369</v>
       </c>
       <c r="K18">
-        <v>-14.61668841761827</v>
+        <v>-14.616688417618271</v>
       </c>
       <c r="L18">
-        <v>-12.19274847870182</v>
+        <v>-12.192748478701819</v>
       </c>
       <c r="M18">
-        <v>-19.83478330658106</v>
+        <v>-19.834783306581059</v>
       </c>
       <c r="N18">
-        <v>-22.1209487534626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>-22.120948753462599</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1588,31 +1649,31 @@
         <v>1000000</v>
       </c>
       <c r="G19">
-        <v>-15.15722776933806</v>
+        <v>-15.157227769338061</v>
       </c>
       <c r="H19">
         <v>-10.00571990652611</v>
       </c>
       <c r="I19">
-        <v>-22.1103807697981</v>
+        <v>-22.110380769798098</v>
       </c>
       <c r="J19">
-        <v>-23.99158125105927</v>
+        <v>-23.991581251059269</v>
       </c>
       <c r="K19">
-        <v>-15.85512345679012</v>
+        <v>-15.855123456790119</v>
       </c>
       <c r="L19">
         <v>-10.57763116057234</v>
       </c>
       <c r="M19">
-        <v>-21.82771028037383</v>
+        <v>-21.827710280373829</v>
       </c>
       <c r="N19">
-        <v>-23.65106783919598</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>-23.651067839195981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1632,31 +1693,31 @@
         <v>1000000</v>
       </c>
       <c r="G20">
-        <v>-16.68967814980233</v>
+        <v>-16.689678149802329</v>
       </c>
       <c r="H20">
         <v>-10.00912494004945</v>
       </c>
       <c r="I20">
-        <v>-21.5042428714041</v>
+        <v>-21.504242871404099</v>
       </c>
       <c r="J20">
-        <v>-23.9708723609896</v>
+        <v>-23.970872360989599</v>
       </c>
       <c r="K20">
-        <v>-16.60584677419355</v>
+        <v>-16.605846774193552</v>
       </c>
       <c r="L20">
         <v>-22.97204268292683</v>
       </c>
       <c r="M20">
-        <v>-21.80398686679174</v>
+        <v>-21.803986866791739</v>
       </c>
       <c r="N20">
-        <v>-22.70343137254902</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>-22.703431372549019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1679,28 +1740,28 @@
         <v>-14.09095569940763</v>
       </c>
       <c r="H21">
-        <v>-10.00514712698086</v>
+        <v>-10.005147126980861</v>
       </c>
       <c r="I21">
         <v>-21.03599855397627</v>
       </c>
       <c r="J21">
-        <v>-23.99245327140567</v>
+        <v>-23.992453271405669</v>
       </c>
       <c r="K21">
         <v>-14.1114880112835</v>
       </c>
       <c r="L21">
-        <v>-11.94952290076336</v>
+        <v>-11.949522900763361</v>
       </c>
       <c r="M21">
-        <v>-20.90550179211469</v>
+        <v>-20.905501792114691</v>
       </c>
       <c r="N21">
-        <v>-24.17759765625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>-24.177597656250001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1720,16 +1781,16 @@
         <v>1000000</v>
       </c>
       <c r="G22">
-        <v>-13.85861236053248</v>
+        <v>-13.858612360532479</v>
       </c>
       <c r="H22">
         <v>-10.00677740485051</v>
       </c>
       <c r="I22">
-        <v>-19.43922706868342</v>
+        <v>-19.439227068683419</v>
       </c>
       <c r="J22">
-        <v>-23.99153850480914</v>
+        <v>-23.991538504809139</v>
       </c>
       <c r="K22">
         <v>-14.76401215805471</v>
@@ -1744,7 +1805,7 @@
         <v>-23.87422238372093</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1764,10 +1825,10 @@
         <v>1000000</v>
       </c>
       <c r="G23">
-        <v>-13.07704318308705</v>
+        <v>-13.077043183087049</v>
       </c>
       <c r="H23">
-        <v>-10.00865159827772</v>
+        <v>-10.008651598277719</v>
       </c>
       <c r="I23">
         <v>-18.80494801201186</v>
@@ -1779,16 +1840,16 @@
         <v>-14.19169014084507</v>
       </c>
       <c r="L23">
-        <v>-9.899011254019292</v>
+        <v>-9.8990112540192925</v>
       </c>
       <c r="M23">
-        <v>-19.95053977272728</v>
+        <v>-19.950539772727279</v>
       </c>
       <c r="N23">
         <v>-22.38311846689896</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1811,10 +1872,10 @@
         <v>-11.59816339982906</v>
       </c>
       <c r="H24">
-        <v>-10.00599320285843</v>
+        <v>-10.005993202858431</v>
       </c>
       <c r="I24">
-        <v>-18.13038639485771</v>
+        <v>-18.130386394857709</v>
       </c>
       <c r="J24">
         <v>-23.76761854979171</v>
@@ -1823,16 +1884,16 @@
         <v>-12.87988286969253</v>
       </c>
       <c r="L24">
-        <v>-2.22946169772257</v>
+        <v>-2.2294616977225701</v>
       </c>
       <c r="M24">
-        <v>-19.06035881435257</v>
+        <v>-19.060358814352568</v>
       </c>
       <c r="N24">
-        <v>-22.0396858071506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>-22.039685807150601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1855,7 +1916,7 @@
         <v>-12.73998004263758</v>
       </c>
       <c r="H25">
-        <v>-10.00258916539213</v>
+        <v>-10.002589165392131</v>
       </c>
       <c r="I25">
         <v>-20.4424505422047</v>
@@ -1864,10 +1925,10 @@
         <v>-23.4262389530933</v>
       </c>
       <c r="K25">
-        <v>-16.50501607717042</v>
+        <v>-16.505016077170421</v>
       </c>
       <c r="L25">
-        <v>-29.4748885077187</v>
+        <v>-29.474888507718699</v>
       </c>
       <c r="M25">
         <v>-23.08151757188498</v>
@@ -1876,7 +1937,7 @@
         <v>-25.22034482758621</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1902,10 +1963,10 @@
         <v>-10.00760836913425</v>
       </c>
       <c r="I26">
-        <v>-20.85675613535533</v>
+        <v>-20.856756135355329</v>
       </c>
       <c r="J26">
-        <v>-23.99414293207927</v>
+        <v>-23.994142932079271</v>
       </c>
       <c r="K26">
         <v>-14.94767942583732</v>
@@ -1914,13 +1975,13 @@
         <v>-11.90611001964637</v>
       </c>
       <c r="M26">
-        <v>-21.44221482889734</v>
+        <v>-21.442214828897342</v>
       </c>
       <c r="N26">
-        <v>-23.90034615384615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>-23.900346153846151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1946,10 +2007,10 @@
         <v>-12.61059005339431</v>
       </c>
       <c r="I27">
-        <v>-18.29514695369942</v>
+        <v>-18.295146953699419</v>
       </c>
       <c r="J27">
-        <v>-23.85515376659272</v>
+        <v>-23.855153766592721</v>
       </c>
       <c r="K27">
         <v>-14.31631455399061</v>
@@ -1964,7 +2025,7 @@
         <v>-23.28831514324693</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1984,13 +2045,13 @@
         <v>1000000</v>
       </c>
       <c r="G28">
-        <v>-10.14835835734958</v>
+        <v>-10.148358357349579</v>
       </c>
       <c r="H28">
-        <v>-11.32083715087198</v>
+        <v>-11.320837150871981</v>
       </c>
       <c r="I28">
-        <v>-17.17409398751333</v>
+        <v>-17.174093987513331</v>
       </c>
       <c r="J28">
         <v>-23.7540283224976</v>
@@ -1999,16 +2060,16 @@
         <v>-12.51090909090909</v>
       </c>
       <c r="L28">
-        <v>-9.95125</v>
+        <v>-9.9512499999999999</v>
       </c>
       <c r="M28">
-        <v>-18.83484375</v>
+        <v>-18.834843750000001</v>
       </c>
       <c r="N28">
         <v>-21.30317625458996</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2028,16 +2089,16 @@
         <v>1000000</v>
       </c>
       <c r="G29">
-        <v>-16.8173250148305</v>
+        <v>-16.817325014830502</v>
       </c>
       <c r="H29">
-        <v>-10.00925899514396</v>
+        <v>-10.009258995143959</v>
       </c>
       <c r="I29">
-        <v>-23.99994058040514</v>
+        <v>-23.999940580405141</v>
       </c>
       <c r="J29">
-        <v>-23.99692114497069</v>
+        <v>-23.996921144970688</v>
       </c>
       <c r="K29">
         <v>-15.14108137044968</v>
@@ -2049,10 +2110,10 @@
         <v>-21.35068965517241</v>
       </c>
       <c r="N29">
-        <v>-21.44357142857143</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
+        <v>-21.443571428571431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2075,28 +2136,28 @@
         <v>-14.15202612880455</v>
       </c>
       <c r="H30">
-        <v>-10.00136100470731</v>
+        <v>-10.001361004707309</v>
       </c>
       <c r="I30">
-        <v>-17.09744444257708</v>
+        <v>-17.097444442577078</v>
       </c>
       <c r="J30">
         <v>-23.62642319505408</v>
       </c>
       <c r="K30">
-        <v>-13.83016279069767</v>
+        <v>-13.830162790697671</v>
       </c>
       <c r="L30">
         <v>-11.41238805970149</v>
       </c>
       <c r="M30">
-        <v>-19.190625</v>
+        <v>-19.190625000000001</v>
       </c>
       <c r="N30">
-        <v>-22.27052830188679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
+        <v>-22.270528301886792</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2122,13 +2183,13 @@
         <v>-10.00251830166526</v>
       </c>
       <c r="I31">
-        <v>-18.74191285031254</v>
+        <v>-18.741912850312541</v>
       </c>
       <c r="J31">
-        <v>-23.83964698065001</v>
+        <v>-23.839646980650009</v>
       </c>
       <c r="K31">
-        <v>-14.21531971580817</v>
+        <v>-14.215319715808169</v>
       </c>
       <c r="L31">
         <v>-10.97448039215686</v>
@@ -2140,7 +2201,7 @@
         <v>-20.61757775119618</v>
       </c>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2166,10 +2227,10 @@
         <v>-10.00612641194248</v>
       </c>
       <c r="I32">
-        <v>-17.0138641692842</v>
+        <v>-17.013864169284201</v>
       </c>
       <c r="J32">
-        <v>-23.51245928332352</v>
+        <v>-23.512459283323519</v>
       </c>
       <c r="K32">
         <v>-13.52177083333333</v>
@@ -2181,10 +2242,10 @@
         <v>-18.33936573311367</v>
       </c>
       <c r="N32">
-        <v>-22.16944881889764</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>-22.169448818897639</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2207,28 +2268,28 @@
         <v>-15.13953023020462</v>
       </c>
       <c r="H33">
-        <v>-10.00104969750129</v>
+        <v>-10.001049697501291</v>
       </c>
       <c r="I33">
-        <v>-18.44633139209822</v>
+        <v>-18.446331392098219</v>
       </c>
       <c r="J33">
-        <v>-23.99538724637092</v>
+        <v>-23.995387246370921</v>
       </c>
       <c r="K33">
         <v>-16.26767361111111</v>
       </c>
       <c r="L33">
-        <v>-12.47891598915989</v>
+        <v>-12.478915989159891</v>
       </c>
       <c r="M33">
-        <v>-20.71583333333333</v>
+        <v>-20.715833333333329</v>
       </c>
       <c r="N33">
-        <v>-21.24074105621806</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>-21.240741056218059</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2251,28 +2312,28 @@
         <v>-15.44505792554858</v>
       </c>
       <c r="H34">
-        <v>-10.00502560850233</v>
+        <v>-10.005025608502329</v>
       </c>
       <c r="I34">
         <v>-20.8569900724506</v>
       </c>
       <c r="J34">
-        <v>-23.99723042393583</v>
+        <v>-23.997230423935829</v>
       </c>
       <c r="K34">
         <v>-15.88744087837838</v>
       </c>
       <c r="L34">
-        <v>-23.24485239852399</v>
+        <v>-23.244852398523989</v>
       </c>
       <c r="M34">
-        <v>-22.24027139874739</v>
+        <v>-22.240271398747389</v>
       </c>
       <c r="N34">
-        <v>-23.86501200480192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>-23.865012004801919</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2298,25 +2359,25 @@
         <v>-10.00829472694604</v>
       </c>
       <c r="I35">
-        <v>-20.37321426263851</v>
+        <v>-20.373214262638509</v>
       </c>
       <c r="J35">
-        <v>-23.9996086517297</v>
+        <v>-23.999608651729702</v>
       </c>
       <c r="K35">
-        <v>-16.04176935229068</v>
+        <v>-16.041769352290679</v>
       </c>
       <c r="L35">
-        <v>-10.96217131474103</v>
+        <v>-10.962171314741029</v>
       </c>
       <c r="M35">
-        <v>-22.7240625</v>
+        <v>-22.724062499999999</v>
       </c>
       <c r="N35">
-        <v>-23.92097578347579</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>-23.920975783475789</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2336,31 +2397,31 @@
         <v>1000000</v>
       </c>
       <c r="G36">
-        <v>-14.19397764924419</v>
+        <v>-14.193977649244189</v>
       </c>
       <c r="H36">
         <v>-10.00220965738859</v>
       </c>
       <c r="I36">
-        <v>-23.99429025962949</v>
+        <v>-23.994290259629491</v>
       </c>
       <c r="J36">
-        <v>-23.9984894831413</v>
+        <v>-23.998489483141299</v>
       </c>
       <c r="K36">
-        <v>-16.12848056537102</v>
+        <v>-16.128480565371021</v>
       </c>
       <c r="L36">
         <v>-23.35763846153846</v>
       </c>
       <c r="M36">
-        <v>-24.46593333333333</v>
+        <v>-24.465933333333329</v>
       </c>
       <c r="N36">
         <v>-25.56996462264151</v>
       </c>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2380,19 +2441,19 @@
         <v>1000000</v>
       </c>
       <c r="G37">
-        <v>-14.36436126588361</v>
+        <v>-14.364361265883611</v>
       </c>
       <c r="H37">
-        <v>-10.0025885362993</v>
+        <v>-10.002588536299299</v>
       </c>
       <c r="I37">
-        <v>-23.54770411316502</v>
+        <v>-23.547704113165022</v>
       </c>
       <c r="J37">
         <v>-23.99093159908125</v>
       </c>
       <c r="K37">
-        <v>-16.47271671826626</v>
+        <v>-16.472716718266259</v>
       </c>
       <c r="L37">
         <v>-23.2054459203036</v>
@@ -2401,10 +2462,10 @@
         <v>-23.20136082474227</v>
       </c>
       <c r="N37">
-        <v>-24.78652625152625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>-24.786526251526251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2424,31 +2485,31 @@
         <v>1000000</v>
       </c>
       <c r="G38">
-        <v>-15.33409677138554</v>
+        <v>-15.334096771385539</v>
       </c>
       <c r="H38">
-        <v>-10.00073254391551</v>
+        <v>-10.000732543915509</v>
       </c>
       <c r="I38">
-        <v>-20.8090035478693</v>
+        <v>-20.809003547869299</v>
       </c>
       <c r="J38">
-        <v>-23.99442585361714</v>
+        <v>-23.994425853617141</v>
       </c>
       <c r="K38">
-        <v>-16.69884858044164</v>
+        <v>-16.698848580441641</v>
       </c>
       <c r="L38">
         <v>-12.20046255506608</v>
       </c>
       <c r="M38">
-        <v>-23.32273722627737</v>
+        <v>-23.322737226277368</v>
       </c>
       <c r="N38">
-        <v>-24.9741581632653</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>-24.974158163265301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2468,7 +2529,7 @@
         <v>1000000</v>
       </c>
       <c r="G39">
-        <v>-17.62973938109491</v>
+        <v>-17.629739381094911</v>
       </c>
       <c r="H39">
         <v>-10.00002735711149</v>
@@ -2486,13 +2547,13 @@
         <v>-12.74348027842227</v>
       </c>
       <c r="M39">
-        <v>-21.34117021276596</v>
+        <v>-21.341170212765959</v>
       </c>
       <c r="N39">
-        <v>-22.75867663344408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>-22.758676633444079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2518,25 +2579,25 @@
         <v>-10.00690382371034</v>
       </c>
       <c r="I40">
-        <v>-24.42223464816809</v>
+        <v>-24.422234648168089</v>
       </c>
       <c r="J40">
-        <v>-23.99914875366825</v>
+        <v>-23.999148753668251</v>
       </c>
       <c r="K40">
         <v>-12.35509433962264</v>
       </c>
       <c r="L40">
-        <v>-9.692342931937176</v>
+        <v>-9.6923429319371763</v>
       </c>
       <c r="M40">
-        <v>-19.92649038461538</v>
+        <v>-19.926490384615381</v>
       </c>
       <c r="N40">
-        <v>-22.11619512195122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>-22.116195121951218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2544,7 +2605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2564,22 +2625,22 @@
         <v>1000000</v>
       </c>
       <c r="G42">
-        <v>-16.30745888274163</v>
+        <v>-16.307458882741631</v>
       </c>
       <c r="H42">
         <v>-10.00779025291552</v>
       </c>
       <c r="I42">
-        <v>-23.99140178263188</v>
+        <v>-23.991401782631879</v>
       </c>
       <c r="J42">
-        <v>-23.99787242958146</v>
+        <v>-23.997872429581459</v>
       </c>
       <c r="K42">
         <v>-15.84596774193548</v>
       </c>
       <c r="L42">
-        <v>-10.96517973856209</v>
+        <v>-10.965179738562091</v>
       </c>
       <c r="M42">
         <v>-21.70440000000001</v>
@@ -2588,7 +2649,7 @@
         <v>-21.94540268456376</v>
       </c>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2611,10 +2672,10 @@
         <v>-14.96594461972372</v>
       </c>
       <c r="H43">
-        <v>-10.00490014772148</v>
+        <v>-10.004900147721481</v>
       </c>
       <c r="I43">
-        <v>-23.99757070379099</v>
+        <v>-23.997570703790991</v>
       </c>
       <c r="J43">
         <v>-15.38603890385806</v>
@@ -2623,16 +2684,16 @@
         <v>-14.55527027027027</v>
       </c>
       <c r="L43">
-        <v>-5.340703125</v>
+        <v>-5.3407031250000001</v>
       </c>
       <c r="M43">
-        <v>-21.5826</v>
+        <v>-21.582599999999999</v>
       </c>
       <c r="N43">
-        <v>-22.82411308203991</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>-22.824113082039911</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2655,28 +2716,28 @@
         <v>-21.99459594919772</v>
       </c>
       <c r="H44">
-        <v>-10.00343519455848</v>
+        <v>-10.003435194558479</v>
       </c>
       <c r="I44">
-        <v>-36.36320107758045</v>
+        <v>-36.363201077580449</v>
       </c>
       <c r="J44">
         <v>-18.50718616356064</v>
       </c>
       <c r="K44">
-        <v>-17.22952380952381</v>
+        <v>-17.229523809523808</v>
       </c>
       <c r="L44">
-        <v>-22.59511741682974</v>
+        <v>-22.595117416829741</v>
       </c>
       <c r="M44">
-        <v>-23.22284090909091</v>
+        <v>-23.222840909090909</v>
       </c>
       <c r="N44">
-        <v>-23.47836711711711</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>-23.478367117117109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2696,10 +2757,10 @@
         <v>1000000</v>
       </c>
       <c r="G45">
-        <v>-16.50478758346947</v>
+        <v>-16.504787583469469</v>
       </c>
       <c r="H45">
-        <v>-10.00228532250273</v>
+        <v>-10.002285322502731</v>
       </c>
       <c r="I45">
         <v>-23.43362593759317</v>
@@ -2711,16 +2772,16 @@
         <v>-15.79008547008547</v>
       </c>
       <c r="L45">
-        <v>-6.455998116760827</v>
+        <v>-6.4559981167608269</v>
       </c>
       <c r="M45">
-        <v>-25.25092783505154</v>
+        <v>-25.250927835051542</v>
       </c>
       <c r="N45">
-        <v>-15.56554166666666</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14">
+        <v>-15.565541666666659</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2740,31 +2801,31 @@
         <v>1000000</v>
       </c>
       <c r="G46">
-        <v>-16.41018291379435</v>
+        <v>-16.410182913794351</v>
       </c>
       <c r="H46">
         <v>-10.0061002333704</v>
       </c>
       <c r="I46">
-        <v>-26.21833486386854</v>
+        <v>-26.218334863868542</v>
       </c>
       <c r="J46">
-        <v>-23.76793467359903</v>
+        <v>-23.767934673599029</v>
       </c>
       <c r="K46">
         <v>-17.58927710843373</v>
       </c>
       <c r="L46">
-        <v>-25.14340206185567</v>
+        <v>-25.143402061855671</v>
       </c>
       <c r="M46">
-        <v>-24.0840625</v>
+        <v>-24.084062500000002</v>
       </c>
       <c r="N46">
-        <v>-23.85413674033149</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
+        <v>-23.854136740331491</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2790,13 +2851,13 @@
         <v>-10.00106008079457</v>
       </c>
       <c r="I47">
-        <v>-24.0619642193775</v>
+        <v>-24.061964219377501</v>
       </c>
       <c r="J47">
         <v>-12.02417552329535</v>
       </c>
       <c r="K47">
-        <v>-16.74329166666667</v>
+        <v>-16.743291666666671</v>
       </c>
       <c r="L47">
         <v>-27.07193548387097</v>
@@ -2805,10 +2866,10 @@
         <v>-24.22419871794872</v>
       </c>
       <c r="N47">
-        <v>-22.57879396984925</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
+        <v>-22.578793969849251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2831,28 +2892,28 @@
         <v>-15.79429382463146</v>
       </c>
       <c r="H48">
-        <v>-10.00766184482723</v>
+        <v>-10.007661844827229</v>
       </c>
       <c r="I48">
-        <v>-24.82969862973773</v>
+        <v>-24.829698629737731</v>
       </c>
       <c r="J48">
-        <v>-20.05380009161846</v>
+        <v>-20.053800091618459</v>
       </c>
       <c r="K48">
-        <v>-16.82211111111111</v>
+        <v>-16.822111111111109</v>
       </c>
       <c r="L48">
         <v>-24.07836283185841</v>
       </c>
       <c r="M48">
-        <v>-22.9586625</v>
+        <v>-22.958662499999999</v>
       </c>
       <c r="N48">
-        <v>-24.96906879194631</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>-24.969068791946309</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2872,31 +2933,31 @@
         <v>1000000</v>
       </c>
       <c r="G49">
-        <v>-15.38512809166918</v>
+        <v>-15.385128091669181</v>
       </c>
       <c r="H49">
-        <v>-10.00643628676121</v>
+        <v>-10.006436286761209</v>
       </c>
       <c r="I49">
-        <v>-23.86793119974434</v>
+        <v>-23.867931199744341</v>
       </c>
       <c r="J49">
         <v>-23.99172501640227</v>
       </c>
       <c r="K49">
-        <v>-16.45978295819936</v>
+        <v>-16.459782958199359</v>
       </c>
       <c r="L49">
         <v>-23.351288</v>
       </c>
       <c r="M49">
-        <v>-23.64077118644068</v>
+        <v>-23.640771186440681</v>
       </c>
       <c r="N49">
-        <v>-24.82382772020726</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>-24.823827720207259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2919,28 +2980,28 @@
         <v>-12.2770503348431</v>
       </c>
       <c r="H50">
-        <v>-10.00166959335029</v>
+        <v>-10.001669593350289</v>
       </c>
       <c r="I50">
-        <v>-21.61798275657899</v>
+        <v>-21.617982756578989</v>
       </c>
       <c r="J50">
-        <v>-21.97096431754822</v>
+        <v>-21.970964317548219</v>
       </c>
       <c r="K50">
-        <v>-14.4552027027027</v>
+        <v>-14.455202702702699</v>
       </c>
       <c r="L50">
         <v>-23.11119047619048</v>
       </c>
       <c r="M50">
-        <v>-21.22574829931973</v>
+        <v>-21.225748299319729</v>
       </c>
       <c r="N50">
-        <v>-22.70555793991416</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>-22.705557939914161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2960,13 +3021,13 @@
         <v>709632</v>
       </c>
       <c r="G51">
-        <v>-16.64646832435921</v>
+        <v>-16.646468324359208</v>
       </c>
       <c r="H51">
         <v>-10.00938942453916</v>
       </c>
       <c r="I51">
-        <v>-23.79253093883395</v>
+        <v>-23.792530938833949</v>
       </c>
       <c r="J51">
         <v>-21.01865366859478</v>
@@ -2975,7 +3036,7 @@
         <v>-16.12109929078014</v>
       </c>
       <c r="L51">
-        <v>-12.24567615658363</v>
+        <v>-12.245676156583629</v>
       </c>
       <c r="M51">
         <v>-24.15984375</v>
@@ -2984,7 +3045,7 @@
         <v>-22.48683510638298</v>
       </c>
     </row>
-    <row r="52" spans="1:14">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3004,31 +3065,31 @@
         <v>112158</v>
       </c>
       <c r="G52">
-        <v>-17.81</v>
+        <v>-17.809999999999999</v>
       </c>
       <c r="H52">
-        <v>-10.02483302590437</v>
+        <v>-10.024833025904369</v>
       </c>
       <c r="I52">
-        <v>-23.28848165215454</v>
+        <v>-23.288481652154541</v>
       </c>
       <c r="J52">
         <v>-23.99146404747642</v>
       </c>
       <c r="K52">
-        <v>-8.907333333333334</v>
+        <v>-8.9073333333333338</v>
       </c>
       <c r="L52">
         <v>-22.56289617486339</v>
       </c>
       <c r="M52">
-        <v>-14.76785714285714</v>
+        <v>-14.767857142857141</v>
       </c>
       <c r="N52">
-        <v>-26.6077149321267</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>-26.607714932126701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3048,31 +3109,31 @@
         <v>655191</v>
       </c>
       <c r="G53">
-        <v>-21.99023284461297</v>
+        <v>-21.990232844612969</v>
       </c>
       <c r="H53">
-        <v>-11.05870014246405</v>
+        <v>-11.058700142464049</v>
       </c>
       <c r="I53">
-        <v>-35.5566072011739</v>
+        <v>-35.556607201173897</v>
       </c>
       <c r="J53">
-        <v>-21.49063080216508</v>
+        <v>-21.490630802165079</v>
       </c>
       <c r="K53">
         <v>-21.17234042553191</v>
       </c>
       <c r="L53">
-        <v>-9.877324058919804</v>
+        <v>-9.8773240589198039</v>
       </c>
       <c r="M53">
-        <v>-23.16069444444445</v>
+        <v>-23.160694444444449</v>
       </c>
       <c r="N53">
         <v>-19.66780898876404</v>
       </c>
     </row>
-    <row r="54" spans="1:14">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3092,31 +3153,31 @@
         <v>1000000</v>
       </c>
       <c r="G54">
-        <v>-18.03999210111209</v>
+        <v>-18.039992101112091</v>
       </c>
       <c r="H54">
         <v>-10.00988621404818</v>
       </c>
       <c r="I54">
-        <v>-27.17105950376432</v>
+        <v>-27.171059503764319</v>
       </c>
       <c r="J54">
         <v>-12.00044402776752</v>
       </c>
       <c r="K54">
-        <v>-18.52074596774194</v>
+        <v>-18.520745967741941</v>
       </c>
       <c r="L54">
-        <v>-3.374161904761907</v>
+        <v>-3.3741619047619071</v>
       </c>
       <c r="M54">
-        <v>-25.95120218579235</v>
+        <v>-25.951202185792351</v>
       </c>
       <c r="N54">
         <v>-12.97599216710182</v>
       </c>
     </row>
-    <row r="55" spans="1:14">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3136,31 +3197,31 @@
         <v>1000000</v>
       </c>
       <c r="G55">
-        <v>-14.41887189906178</v>
+        <v>-14.418871899061781</v>
       </c>
       <c r="H55">
-        <v>-10.00930352955839</v>
+        <v>-10.009303529558389</v>
       </c>
       <c r="I55">
-        <v>-22.62209719273108</v>
+        <v>-22.622097192731079</v>
       </c>
       <c r="J55">
-        <v>-19.04630246527749</v>
+        <v>-19.046302465277488</v>
       </c>
       <c r="K55">
-        <v>-17.75873737373738</v>
+        <v>-17.758737373737379</v>
       </c>
       <c r="L55">
-        <v>-23.19070422535211</v>
+        <v>-23.190704225352111</v>
       </c>
       <c r="M55">
-        <v>-22.1602466367713</v>
+        <v>-22.160246636771301</v>
       </c>
       <c r="N55">
-        <v>-22.76228904847397</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>-22.762289048473971</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3192,19 +3253,19 @@
         <v>-22.32356518909965</v>
       </c>
       <c r="K56">
-        <v>-16.37888565891473</v>
+        <v>-16.378885658914729</v>
       </c>
       <c r="L56">
-        <v>-26.2725</v>
+        <v>-26.272500000000001</v>
       </c>
       <c r="M56">
         <v>-23.12645539906103</v>
       </c>
       <c r="N56">
-        <v>-26.28199404761905</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>-26.281994047619051</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3230,25 +3291,25 @@
         <v>-10.00113907541399</v>
       </c>
       <c r="I57">
-        <v>-22.37601154947649</v>
+        <v>-22.376011549476491</v>
       </c>
       <c r="J57">
-        <v>-23.63613833236204</v>
+        <v>-23.636138332362041</v>
       </c>
       <c r="K57">
-        <v>-15.30636440677966</v>
+        <v>-15.306364406779659</v>
       </c>
       <c r="L57">
-        <v>-1.582909292035399</v>
+        <v>-1.5829092920353991</v>
       </c>
       <c r="M57">
-        <v>-23.78160220994475</v>
+        <v>-23.781602209944751</v>
       </c>
       <c r="N57">
-        <v>-25.68201086956522</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>-25.682010869565222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3268,13 +3329,13 @@
         <v>1000000</v>
       </c>
       <c r="G58">
-        <v>-15.56587011674963</v>
+        <v>-15.565870116749631</v>
       </c>
       <c r="H58">
         <v>-10.0057533300053</v>
       </c>
       <c r="I58">
-        <v>-23.69068423206001</v>
+        <v>-23.690684232060011</v>
       </c>
       <c r="J58">
         <v>-23.99702238480501</v>
@@ -3283,16 +3344,16 @@
         <v>-16.53492366412214</v>
       </c>
       <c r="L58">
-        <v>-24.91591623036649</v>
+        <v>-24.915916230366491</v>
       </c>
       <c r="M58">
-        <v>-24.7130035971223</v>
+        <v>-24.713003597122299</v>
       </c>
       <c r="N58">
-        <v>-25.78951371571072</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>-25.789513715710719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3318,13 +3379,13 @@
         <v>-10.00034762348886</v>
       </c>
       <c r="I59">
-        <v>-23.25902889719771</v>
+        <v>-23.259028897197709</v>
       </c>
       <c r="J59">
-        <v>-22.63325044624571</v>
+        <v>-22.633250446245711</v>
       </c>
       <c r="K59">
-        <v>-15.68443163097199</v>
+        <v>-15.684431630971989</v>
       </c>
       <c r="L59">
         <v>-1.406688191881917</v>
@@ -3333,10 +3394,10 @@
         <v>-23.48939226519337</v>
       </c>
       <c r="N59">
-        <v>-24.20489736070381</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>-24.204897360703811</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3356,22 +3417,22 @@
         <v>1000000</v>
       </c>
       <c r="G60">
-        <v>-18.16028607891407</v>
+        <v>-18.160286078914069</v>
       </c>
       <c r="H60">
         <v>-10.00153834235913</v>
       </c>
       <c r="I60">
-        <v>-40.4785463353619</v>
+        <v>-40.478546335361898</v>
       </c>
       <c r="J60">
-        <v>-21.98328959588533</v>
+        <v>-21.983289595885331</v>
       </c>
       <c r="K60">
-        <v>1.13498800959233</v>
+        <v>1.1349880095923299</v>
       </c>
       <c r="L60">
-        <v>-22.95371057513915</v>
+        <v>-22.953710575139151</v>
       </c>
       <c r="M60">
         <v>-22.68197278911564</v>
@@ -3380,7 +3441,7 @@
         <v>-22.9387570093458</v>
       </c>
     </row>
-    <row r="61" spans="1:14">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3403,10 +3464,10 @@
         <v>-14.94499489818673</v>
       </c>
       <c r="H61">
-        <v>-10.00665464165071</v>
+        <v>-10.006654641650711</v>
       </c>
       <c r="I61">
-        <v>-22.47071020276912</v>
+        <v>-22.470710202769119</v>
       </c>
       <c r="J61">
         <v>-23.99278952195883</v>
@@ -3415,16 +3476,16 @@
         <v>-15.71370157819225</v>
       </c>
       <c r="L61">
-        <v>-14.40988352745424</v>
+        <v>-14.409883527454239</v>
       </c>
       <c r="M61">
-        <v>-23.4922848200313</v>
+        <v>-23.492284820031301</v>
       </c>
       <c r="N61">
-        <v>-25.59640465793304</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>-25.596404657933039</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3453,7 +3514,7 @@
         <v>-19.43255488546183</v>
       </c>
       <c r="J62">
-        <v>-23.99117606818922</v>
+        <v>-23.991176068189219</v>
       </c>
       <c r="K62">
         <v>-13.17128776978417</v>
@@ -3462,13 +3523,13 @@
         <v>-13.19264485981309</v>
       </c>
       <c r="M62">
-        <v>-19.99824508320727</v>
+        <v>-19.998245083207269</v>
       </c>
       <c r="N62">
-        <v>-24.60199726402188</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>-24.601997264021879</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3497,22 +3558,22 @@
         <v>-20.1112006075872</v>
       </c>
       <c r="J63">
-        <v>-23.99728344310075</v>
+        <v>-23.997283443100748</v>
       </c>
       <c r="K63">
-        <v>-14.45459651898734</v>
+        <v>-14.454596518987341</v>
       </c>
       <c r="L63">
         <v>-10.45334012219959</v>
       </c>
       <c r="M63">
-        <v>-19.54301916932907</v>
+        <v>-19.543019169329071</v>
       </c>
       <c r="N63">
-        <v>-24.24720430107527</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>-24.247204301075271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3532,31 +3593,31 @@
         <v>1000000</v>
       </c>
       <c r="G64">
-        <v>-17.49468308400027</v>
+        <v>-17.494683084000268</v>
       </c>
       <c r="H64">
         <v>-10.00052058941615</v>
       </c>
       <c r="I64">
-        <v>-22.97155370238877</v>
+        <v>-22.971553702388771</v>
       </c>
       <c r="J64">
         <v>-23.99678081888467</v>
       </c>
       <c r="K64">
-        <v>-14.50851428571428</v>
+        <v>-14.508514285714281</v>
       </c>
       <c r="L64">
-        <v>-9.884177679882525</v>
+        <v>-9.8841776798825247</v>
       </c>
       <c r="M64">
         <v>-21.22488165680474</v>
       </c>
       <c r="N64">
-        <v>-21.92624031007752</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>-21.926240310077521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3582,25 +3643,25 @@
         <v>-10.00436811318024</v>
       </c>
       <c r="I65">
-        <v>-22.61356500305235</v>
+        <v>-22.613565003052351</v>
       </c>
       <c r="J65">
-        <v>-23.24737534520568</v>
+        <v>-23.247375345205679</v>
       </c>
       <c r="K65">
-        <v>-14.08786212914485</v>
+        <v>-14.087862129144851</v>
       </c>
       <c r="L65">
         <v>-13.79396186440678</v>
       </c>
       <c r="M65">
-        <v>-20.46359375</v>
+        <v>-20.463593750000001</v>
       </c>
       <c r="N65">
-        <v>-25.07064250411861</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>-25.070642504118609</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3620,19 +3681,19 @@
         <v>1000000</v>
       </c>
       <c r="G66">
-        <v>-12.87784270772634</v>
+        <v>-12.877842707726341</v>
       </c>
       <c r="H66">
         <v>-10.30020476167839</v>
       </c>
       <c r="I66">
-        <v>-22.41324571850915</v>
+        <v>-22.413245718509149</v>
       </c>
       <c r="J66">
-        <v>-23.99083244060317</v>
+        <v>-23.990832440603171</v>
       </c>
       <c r="K66">
-        <v>-14.6427106518283</v>
+        <v>-14.642710651828301</v>
       </c>
       <c r="L66">
         <v>-13.36276923076923</v>
@@ -3644,7 +3705,7 @@
         <v>-25.44889408099689</v>
       </c>
     </row>
-    <row r="67" spans="1:14">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3667,10 +3728,10 @@
         <v>-13.30004170557485</v>
       </c>
       <c r="H67">
-        <v>-10.00519658222773</v>
+        <v>-10.005196582227731</v>
       </c>
       <c r="I67">
-        <v>-19.83303473092987</v>
+        <v>-19.833034730929871</v>
       </c>
       <c r="J67">
         <v>-23.99954573600375</v>
@@ -3685,10 +3746,10 @@
         <v>-20.85019374068554</v>
       </c>
       <c r="N67">
-        <v>-24.09085798816568</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>-24.090857988165681</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3708,31 +3769,31 @@
         <v>1000000</v>
       </c>
       <c r="G68">
-        <v>-16.74111099210555</v>
+        <v>-16.741110992105551</v>
       </c>
       <c r="H68">
         <v>-10.00411268025637</v>
       </c>
       <c r="I68">
-        <v>-20.99772522427678</v>
+        <v>-20.997725224276781</v>
       </c>
       <c r="J68">
         <v>-23.35448696587483</v>
       </c>
       <c r="K68">
-        <v>-16.79975481611208</v>
+        <v>-16.799754816112081</v>
       </c>
       <c r="L68">
         <v>-11.36579881656805</v>
       </c>
       <c r="M68">
-        <v>-21.517765625</v>
+        <v>-21.517765624999999</v>
       </c>
       <c r="N68">
         <v>-23.23391432791728</v>
       </c>
     </row>
-    <row r="69" spans="1:14">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3752,7 +3813,7 @@
         <v>1000000</v>
       </c>
       <c r="G69">
-        <v>-17.20347038149834</v>
+        <v>-17.203470381498342</v>
       </c>
       <c r="H69">
         <v>-10.00922456247903</v>
@@ -3761,22 +3822,22 @@
         <v>-21.99329371166063</v>
       </c>
       <c r="J69">
-        <v>-22.25473469904026</v>
+        <v>-22.254734699040259</v>
       </c>
       <c r="K69">
-        <v>-16.64564332247557</v>
+        <v>-16.645643322475571</v>
       </c>
       <c r="L69">
-        <v>-2.616514563106794</v>
+        <v>-2.6165145631067941</v>
       </c>
       <c r="M69">
-        <v>-22.20063408190224</v>
+        <v>-22.200634081902241</v>
       </c>
       <c r="N69">
         <v>-24.63287301587302</v>
       </c>
     </row>
-    <row r="70" spans="1:14">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3802,25 +3863,25 @@
         <v>-10.00687083607861</v>
       </c>
       <c r="I70">
-        <v>-23.84458018388049</v>
+        <v>-23.844580183880488</v>
       </c>
       <c r="J70">
-        <v>-23.10344831197714</v>
+        <v>-23.103448311977139</v>
       </c>
       <c r="K70">
-        <v>-16.60445891783567</v>
+        <v>-16.604458917835672</v>
       </c>
       <c r="L70">
         <v>-12.90515400410678</v>
       </c>
       <c r="M70">
-        <v>-23.32999034749035</v>
+        <v>-23.329990347490352</v>
       </c>
       <c r="N70">
-        <v>-24.2740350877193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>-24.274035087719302</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3840,31 +3901,31 @@
         <v>1000000</v>
       </c>
       <c r="G71">
-        <v>-14.68288814028132</v>
+        <v>-14.682888140281319</v>
       </c>
       <c r="H71">
-        <v>-10.00664125091041</v>
+        <v>-10.006641250910411</v>
       </c>
       <c r="I71">
-        <v>-21.93940226177548</v>
+        <v>-21.939402261775481</v>
       </c>
       <c r="J71">
-        <v>-20.80771922249112</v>
+        <v>-20.807719222491119</v>
       </c>
       <c r="K71">
         <v>-14.85793346774194</v>
       </c>
       <c r="L71">
-        <v>-3.864589285714285</v>
+        <v>-3.8645892857142852</v>
       </c>
       <c r="M71">
-        <v>-21.77166666666666</v>
+        <v>-21.771666666666661</v>
       </c>
       <c r="N71">
-        <v>-22.91151538461538</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>-22.911515384615381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3884,31 +3945,31 @@
         <v>1000000</v>
       </c>
       <c r="G72">
-        <v>-18.60855281938275</v>
+        <v>-18.608552819382751</v>
       </c>
       <c r="H72">
-        <v>-10.00915336396523</v>
+        <v>-10.009153363965231</v>
       </c>
       <c r="I72">
-        <v>-26.57882020413628</v>
+        <v>-26.578820204136282</v>
       </c>
       <c r="J72">
-        <v>-12.00943312759821</v>
+        <v>-12.009433127598211</v>
       </c>
       <c r="K72">
-        <v>-14.53042253521127</v>
+        <v>-14.530422535211271</v>
       </c>
       <c r="L72">
         <v>-25.70125560538116</v>
       </c>
       <c r="M72">
-        <v>-8.447307692307691</v>
+        <v>-8.4473076923076906</v>
       </c>
       <c r="N72">
-        <v>-12.76747706422018</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>-12.767477064220181</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3937,22 +3998,22 @@
         <v>-18.27907932579517</v>
       </c>
       <c r="J73">
-        <v>-20.16044907897375</v>
+        <v>-20.160449078973748</v>
       </c>
       <c r="K73">
-        <v>-13.66172897196262</v>
+        <v>-13.661728971962621</v>
       </c>
       <c r="L73">
-        <v>-4.393389662027834</v>
+        <v>-4.3933896620278343</v>
       </c>
       <c r="M73">
         <v>-19.64188552188552</v>
       </c>
       <c r="N73">
-        <v>-17.93811034482759</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>-17.938110344827589</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3978,25 +4039,25 @@
         <v>-10.00718875598198</v>
       </c>
       <c r="I74">
-        <v>-20.39675596565231</v>
+        <v>-20.396755965652311</v>
       </c>
       <c r="J74">
-        <v>-20.80936573017389</v>
+        <v>-20.809365730173891</v>
       </c>
       <c r="K74">
-        <v>-13.60657894736842</v>
+        <v>-13.606578947368421</v>
       </c>
       <c r="L74">
         <v>-1.399984520123839</v>
       </c>
       <c r="M74">
-        <v>-20.15</v>
+        <v>-20.149999999999999</v>
       </c>
       <c r="N74">
-        <v>-18.998928</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>-18.998927999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4019,10 +4080,10 @@
         <v>-13.96270079632386</v>
       </c>
       <c r="H75">
-        <v>-10.00957832937135</v>
+        <v>-10.009578329371349</v>
       </c>
       <c r="I75">
-        <v>-20.28336670558558</v>
+        <v>-20.283366705585578</v>
       </c>
       <c r="J75">
         <v>-22.59563125662984</v>
@@ -4034,13 +4095,13 @@
         <v>-11.55163617886179</v>
       </c>
       <c r="M75">
-        <v>-21.82086715867159</v>
+        <v>-21.820867158671589</v>
       </c>
       <c r="N75">
         <v>-22.88314194577352</v>
       </c>
     </row>
-    <row r="76" spans="1:14">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4066,25 +4127,25 @@
         <v>-10.00743551298976</v>
       </c>
       <c r="I76">
-        <v>-20.56048488000063</v>
+        <v>-20.560484880000629</v>
       </c>
       <c r="J76">
         <v>-23.96770153720264</v>
       </c>
       <c r="K76">
-        <v>-15.22565916398714</v>
+        <v>-15.225659163987141</v>
       </c>
       <c r="L76">
-        <v>-11.02349223946785</v>
+        <v>-11.023492239467849</v>
       </c>
       <c r="M76">
         <v>-21.32289879931389</v>
       </c>
       <c r="N76">
-        <v>-23.26954198473282</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>-23.269541984732822</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4104,31 +4165,31 @@
         <v>1000000</v>
       </c>
       <c r="G77">
-        <v>-14.91996782929285</v>
+        <v>-14.919967829292849</v>
       </c>
       <c r="H77">
         <v>-10.00712711766557</v>
       </c>
       <c r="I77">
-        <v>-20.17162513013844</v>
+        <v>-20.171625130138441</v>
       </c>
       <c r="J77">
-        <v>-23.99215781684414</v>
+        <v>-23.992157816844141</v>
       </c>
       <c r="K77">
         <v>-15.98279411764706</v>
       </c>
       <c r="L77">
-        <v>-10.8470875</v>
+        <v>-10.847087500000001</v>
       </c>
       <c r="M77">
-        <v>-20.93935877862596</v>
+        <v>-20.939358778625959</v>
       </c>
       <c r="N77">
-        <v>-22.51388268156425</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>-22.513882681564251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4151,16 +4212,16 @@
         <v>-15.22988579839468</v>
       </c>
       <c r="H78">
-        <v>-10.00557595408153</v>
+        <v>-10.005575954081531</v>
       </c>
       <c r="I78">
-        <v>-20.27972719762704</v>
+        <v>-20.279727197627039</v>
       </c>
       <c r="J78">
-        <v>-23.99253013100983</v>
+        <v>-23.992530131009829</v>
       </c>
       <c r="K78">
-        <v>-15.16567398119122</v>
+        <v>-15.165673981191221</v>
       </c>
       <c r="L78">
         <v>-11.98527777777778</v>
@@ -4169,10 +4230,10 @@
         <v>-20.74404804270463</v>
       </c>
       <c r="N78">
-        <v>-23.74162011173184</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>-23.741620111731841</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4192,7 +4253,7 @@
         <v>1000000</v>
       </c>
       <c r="G79">
-        <v>-13.02501627838</v>
+        <v>-13.025016278380001</v>
       </c>
       <c r="H79">
         <v>-10.00983494946361</v>
@@ -4204,19 +4265,19 @@
         <v>-23.9924718071033</v>
       </c>
       <c r="K79">
-        <v>-13.8794412191582</v>
+        <v>-13.879441219158201</v>
       </c>
       <c r="L79">
-        <v>-11.74125925925926</v>
+        <v>-11.741259259259261</v>
       </c>
       <c r="M79">
-        <v>-21.64618131868132</v>
+        <v>-21.646181318681322</v>
       </c>
       <c r="N79">
         <v>-25.67</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4239,28 +4300,28 @@
         <v>-14.6</v>
       </c>
       <c r="H80">
-        <v>-10.00584644710703</v>
+        <v>-10.005846447107031</v>
       </c>
       <c r="I80">
-        <v>-19.32140029801531</v>
+        <v>-19.321400298015309</v>
       </c>
       <c r="J80">
-        <v>-23.99754098189232</v>
+        <v>-23.997540981892321</v>
       </c>
       <c r="K80">
-        <v>-14.1314762611276</v>
+        <v>-14.131476261127601</v>
       </c>
       <c r="L80">
         <v>-23.37481194690265</v>
       </c>
       <c r="M80">
-        <v>-20.09982288828338</v>
+        <v>-20.099822888283381</v>
       </c>
       <c r="N80">
-        <v>-22.18409946236559</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14">
+        <v>-22.184099462365591</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4286,16 +4347,16 @@
         <v>-10.00191104764512</v>
       </c>
       <c r="I81">
-        <v>-20.13780832176723</v>
+        <v>-20.137808321767231</v>
       </c>
       <c r="J81">
-        <v>-23.26562719009008</v>
+        <v>-23.265627190090079</v>
       </c>
       <c r="K81">
-        <v>-15.70971574344023</v>
+        <v>-15.709715743440229</v>
       </c>
       <c r="L81">
-        <v>-11.3547614678899</v>
+        <v>-11.354761467889899</v>
       </c>
       <c r="M81">
         <v>-21.34920521945433</v>
@@ -4304,7 +4365,7 @@
         <v>-21.70130108991825</v>
       </c>
     </row>
-    <row r="82" spans="1:14">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4330,10 +4391,10 @@
         <v>-10.00886394503566</v>
       </c>
       <c r="I82">
-        <v>-18.50529059761085</v>
+        <v>-18.505290597610848</v>
       </c>
       <c r="J82">
-        <v>-23.17711406455424</v>
+        <v>-23.177114064554239</v>
       </c>
       <c r="K82">
         <v>-14.85301147227533</v>
@@ -4342,13 +4403,13 @@
         <v>-11.48094458438287</v>
       </c>
       <c r="M82">
-        <v>-19.52360125260961</v>
+        <v>-19.523601252609609</v>
       </c>
       <c r="N82">
         <v>-23.23085090361446</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4368,7 +4429,7 @@
         <v>1000000</v>
       </c>
       <c r="G83">
-        <v>-16.48180990240546</v>
+        <v>-16.481809902405459</v>
       </c>
       <c r="H83">
         <v>-10.00810612350802</v>
@@ -4380,19 +4441,19 @@
         <v>-23.60229936793446</v>
       </c>
       <c r="K83">
-        <v>-16.5487260034904</v>
+        <v>-16.548726003490401</v>
       </c>
       <c r="L83">
-        <v>-2.290876288659795</v>
+        <v>-2.2908762886597951</v>
       </c>
       <c r="M83">
-        <v>-22.89868421052632</v>
+        <v>-22.898684210526319</v>
       </c>
       <c r="N83">
-        <v>-25.58024353120243</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14">
+        <v>-25.580243531202431</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4412,31 +4473,31 @@
         <v>1000000</v>
       </c>
       <c r="G84">
-        <v>-14.26867854890948</v>
+        <v>-14.268678548909479</v>
       </c>
       <c r="H84">
-        <v>-10.00544369207591</v>
+        <v>-10.005443692075909</v>
       </c>
       <c r="I84">
-        <v>-19.93371281710023</v>
+        <v>-19.933712817100229</v>
       </c>
       <c r="J84">
-        <v>-23.99611906288657</v>
+        <v>-23.996119062886571</v>
       </c>
       <c r="K84">
-        <v>-15.5856648199446</v>
+        <v>-15.585664819944601</v>
       </c>
       <c r="L84">
-        <v>-31.6507119205298</v>
+        <v>-31.650711920529801</v>
       </c>
       <c r="M84">
-        <v>-21.36826380368099</v>
+        <v>-21.368263803680989</v>
       </c>
       <c r="N84">
-        <v>-23.31064174894217</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14">
+        <v>-23.310641748942171</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4456,7 +4517,7 @@
         <v>1000000</v>
       </c>
       <c r="G85">
-        <v>-14.6118034873007</v>
+        <v>-14.611803487300699</v>
       </c>
       <c r="H85">
         <v>-10.00769330217892</v>
@@ -4465,7 +4526,7 @@
         <v>-20.23059310439503</v>
       </c>
       <c r="J85">
-        <v>-22.78119372474015</v>
+        <v>-22.781193724740149</v>
       </c>
       <c r="K85">
         <v>-15.84496402877698</v>
@@ -4474,13 +4535,13 @@
         <v>-12.29622661122661</v>
       </c>
       <c r="M85">
-        <v>-20.97852071005918</v>
+        <v>-20.978520710059179</v>
       </c>
       <c r="N85">
-        <v>-23.68175657894737</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14">
+        <v>-23.681756578947368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4500,31 +4561,31 @@
         <v>1000000</v>
       </c>
       <c r="G86">
-        <v>-15.64005806542933</v>
+        <v>-15.640058065429329</v>
       </c>
       <c r="H86">
-        <v>-10.00351249599738</v>
+        <v>-10.003512495997381</v>
       </c>
       <c r="I86">
-        <v>-20.05961351325662</v>
+        <v>-20.059613513256618</v>
       </c>
       <c r="J86">
         <v>-23.61813040149578</v>
       </c>
       <c r="K86">
-        <v>-14.80198838896952</v>
+        <v>-14.801988388969519</v>
       </c>
       <c r="L86">
         <v>-12.1624861878453</v>
       </c>
       <c r="M86">
-        <v>-20.95227474150665</v>
+        <v>-20.952274741506649</v>
       </c>
       <c r="N86">
         <v>-24.41110906862745</v>
       </c>
     </row>
-    <row r="87" spans="1:14">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4544,16 +4605,16 @@
         <v>1000000</v>
       </c>
       <c r="G87">
-        <v>-16.05430592272234</v>
+        <v>-16.054305922722339</v>
       </c>
       <c r="H87">
-        <v>-10.00621877242837</v>
+        <v>-10.006218772428371</v>
       </c>
       <c r="I87">
-        <v>-20.77430603406875</v>
+        <v>-20.774306034068751</v>
       </c>
       <c r="J87">
-        <v>-23.81215147508748</v>
+        <v>-23.812151475087479</v>
       </c>
       <c r="K87">
         <v>-14.93895408163265</v>
@@ -4562,13 +4623,13 @@
         <v>-11.59488151658768</v>
       </c>
       <c r="M87">
-        <v>-20.5586</v>
+        <v>-20.558599999999998</v>
       </c>
       <c r="N87">
-        <v>-23.10582876712328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14">
+        <v>-23.105828767123281</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4588,10 +4649,10 @@
         <v>1000000</v>
       </c>
       <c r="G88">
-        <v>-16.86641248753296</v>
+        <v>-16.866412487532958</v>
       </c>
       <c r="H88">
-        <v>-10.00127489191716</v>
+        <v>-10.001274891917159</v>
       </c>
       <c r="I88">
         <v>-21.47857644287107</v>
@@ -4600,19 +4661,19 @@
         <v>-23.99665280138057</v>
       </c>
       <c r="K88">
-        <v>-15.05292307692308</v>
+        <v>-15.052923076923079</v>
       </c>
       <c r="L88">
         <v>-11.84266666666667</v>
       </c>
       <c r="M88">
-        <v>-20.73184014869888</v>
+        <v>-20.731840148698879</v>
       </c>
       <c r="N88">
-        <v>-22.52946624803768</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14">
+        <v>-22.529466248037679</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4632,31 +4693,31 @@
         <v>1000000</v>
       </c>
       <c r="G89">
-        <v>-14.64933428717745</v>
+        <v>-14.649334287177449</v>
       </c>
       <c r="H89">
         <v>-10.00226409564104</v>
       </c>
       <c r="I89">
-        <v>-23.06179430239601</v>
+        <v>-23.061794302396009</v>
       </c>
       <c r="J89">
-        <v>-23.99456736676114</v>
+        <v>-23.994567366761139</v>
       </c>
       <c r="K89">
         <v>-13.86703557312253</v>
       </c>
       <c r="L89">
-        <v>-11.28895878524946</v>
+        <v>-11.288958785249459</v>
       </c>
       <c r="M89">
         <v>-19.91722084367246</v>
       </c>
       <c r="N89">
-        <v>-23.84065467625899</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14">
+        <v>-23.840654676258989</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4676,31 +4737,31 @@
         <v>1000000</v>
       </c>
       <c r="G90">
-        <v>-15.73327337317301</v>
+        <v>-15.733273373173009</v>
       </c>
       <c r="H90">
         <v>-10.00889871566439</v>
       </c>
       <c r="I90">
-        <v>-19.29342007220872</v>
+        <v>-19.293420072208718</v>
       </c>
       <c r="J90">
-        <v>-23.99216005058785</v>
+        <v>-23.992160050587849</v>
       </c>
       <c r="K90">
         <v>-15.11303827751196</v>
       </c>
       <c r="L90">
-        <v>-10.89696341463415</v>
+        <v>-10.896963414634151</v>
       </c>
       <c r="M90">
-        <v>-20.31286926994906</v>
+        <v>-20.312869269949061</v>
       </c>
       <c r="N90">
-        <v>-23.20130498533724</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14">
+        <v>-23.201304985337242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4723,10 +4784,10 @@
         <v>-15.02082717009559</v>
       </c>
       <c r="H91">
-        <v>-10.00555499469703</v>
+        <v>-10.005554994697031</v>
       </c>
       <c r="I91">
-        <v>-19.6160343018455</v>
+        <v>-19.616034301845499</v>
       </c>
       <c r="J91">
         <v>-23.99092417194738</v>
@@ -4738,13 +4799,13 @@
         <v>-10.61826966292135</v>
       </c>
       <c r="M91">
-        <v>-20.48056856187291</v>
+        <v>-20.480568561872911</v>
       </c>
       <c r="N91">
-        <v>-23.91664041994751</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14">
+        <v>-23.916640419947509</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4764,31 +4825,31 @@
         <v>1000000</v>
       </c>
       <c r="G92">
-        <v>-16.22971002388229</v>
+        <v>-16.229710023882291</v>
       </c>
       <c r="H92">
-        <v>-10.00213565332517</v>
+        <v>-10.002135653325171</v>
       </c>
       <c r="I92">
         <v>-21.11210639493525</v>
       </c>
       <c r="J92">
-        <v>-23.99821796471887</v>
+        <v>-23.998217964718869</v>
       </c>
       <c r="K92">
-        <v>-16.57050159235668</v>
+        <v>-16.570501592356681</v>
       </c>
       <c r="L92">
-        <v>-23.42019623233909</v>
+        <v>-23.420196232339091</v>
       </c>
       <c r="M92">
-        <v>-21.6554702970297</v>
+        <v>-21.655470297029701</v>
       </c>
       <c r="N92">
         <v>-24.0606762295082</v>
       </c>
     </row>
-    <row r="93" spans="1:14">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4808,16 +4869,16 @@
         <v>1000000</v>
       </c>
       <c r="G93">
-        <v>-15.33168792089447</v>
+        <v>-15.331687920894471</v>
       </c>
       <c r="H93">
         <v>-10.00567955832693</v>
       </c>
       <c r="I93">
-        <v>-21.07060814418386</v>
+        <v>-21.070608144183861</v>
       </c>
       <c r="J93">
-        <v>-23.99820205339956</v>
+        <v>-23.998202053399559</v>
       </c>
       <c r="K93">
         <v>-15.84447107438017</v>
@@ -4826,13 +4887,13 @@
         <v>-11.46872549019608</v>
       </c>
       <c r="M93">
-        <v>-21.62123844731978</v>
+        <v>-21.621238447319779</v>
       </c>
       <c r="N93">
         <v>-23.92700819672131</v>
       </c>
     </row>
-    <row r="94" spans="1:14">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4852,31 +4913,31 @@
         <v>1000000</v>
       </c>
       <c r="G94">
-        <v>-15.34663314214288</v>
+        <v>-15.346633142142879</v>
       </c>
       <c r="H94">
-        <v>-10.00196805521846</v>
+        <v>-10.001968055218461</v>
       </c>
       <c r="I94">
         <v>-19.96856343979897</v>
       </c>
       <c r="J94">
-        <v>-23.99433005817381</v>
+        <v>-23.994330058173809</v>
       </c>
       <c r="K94">
         <v>-15.19177004538578</v>
       </c>
       <c r="L94">
-        <v>-10.45589026915114</v>
+        <v>-10.455890269151141</v>
       </c>
       <c r="M94">
         <v>-20.40894495412844</v>
       </c>
       <c r="N94">
-        <v>-22.65026494565218</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14">
+        <v>-22.650264945652179</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4896,31 +4957,31 @@
         <v>1000000</v>
       </c>
       <c r="G95">
-        <v>-15.68192991510034</v>
+        <v>-15.681929915100341</v>
       </c>
       <c r="H95">
-        <v>-10.00026780556773</v>
+        <v>-10.000267805567731</v>
       </c>
       <c r="I95">
         <v>-20.07954145444516</v>
       </c>
       <c r="J95">
-        <v>-23.99397172110504</v>
+        <v>-23.993971721105041</v>
       </c>
       <c r="K95">
-        <v>-15.63628955696202</v>
+        <v>-15.636289556962019</v>
       </c>
       <c r="L95">
-        <v>-9.888102345415779</v>
+        <v>-9.8881023454157795</v>
       </c>
       <c r="M95">
-        <v>-21.06038834951456</v>
+        <v>-21.060388349514561</v>
       </c>
       <c r="N95">
-        <v>-23.36945368171022</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14">
+        <v>-23.369453681710219</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4940,16 +5001,16 @@
         <v>1000000</v>
       </c>
       <c r="G96">
-        <v>-14.63387455562821</v>
+        <v>-14.633874555628211</v>
       </c>
       <c r="H96">
-        <v>-10.00337634149201</v>
+        <v>-10.003376341492009</v>
       </c>
       <c r="I96">
         <v>-19.52497404919562</v>
       </c>
       <c r="J96">
-        <v>-22.19815563253981</v>
+        <v>-22.198155632539809</v>
       </c>
       <c r="K96">
         <v>-15.2011153262519</v>
@@ -4958,13 +5019,13 @@
         <v>-23.96319109461966</v>
       </c>
       <c r="M96">
-        <v>-20.28886970172685</v>
+        <v>-20.288869701726849</v>
       </c>
       <c r="N96">
-        <v>-23.70797639123103</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14">
+        <v>-23.707976391231028</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4984,31 +5045,31 @@
         <v>1000000</v>
       </c>
       <c r="G97">
-        <v>-15.04940058762505</v>
+        <v>-15.049400587625049</v>
       </c>
       <c r="H97">
-        <v>-10.00367024183273</v>
+        <v>-10.003670241832729</v>
       </c>
       <c r="I97">
-        <v>-19.94970675732841</v>
+        <v>-19.949706757328411</v>
       </c>
       <c r="J97">
-        <v>-23.38339919839401</v>
+        <v>-23.383399198394009</v>
       </c>
       <c r="K97">
-        <v>-15.73273142112125</v>
+        <v>-15.732731421121249</v>
       </c>
       <c r="L97">
         <v>-11.32548192771084</v>
       </c>
       <c r="M97">
-        <v>-20.88937961595273</v>
+        <v>-20.889379615952731</v>
       </c>
       <c r="N97">
-        <v>-22.71104011887073</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>-22.711040118870731</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5034,10 +5095,10 @@
         <v>-10.07910131279333</v>
       </c>
       <c r="I98">
-        <v>-20.38613059699531</v>
+        <v>-20.386130596995311</v>
       </c>
       <c r="J98">
-        <v>-23.7626336694563</v>
+        <v>-23.762633669456299</v>
       </c>
       <c r="K98">
         <v>-15.97045911047346</v>
@@ -5049,10 +5110,10 @@
         <v>-21.82102218700475</v>
       </c>
       <c r="N98">
-        <v>-23.01776109660575</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>-23.017761096605749</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5072,10 +5133,10 @@
         <v>1000000</v>
       </c>
       <c r="G99">
-        <v>-15.66219909134253</v>
+        <v>-15.662199091342529</v>
       </c>
       <c r="H99">
-        <v>-11.0340180212344</v>
+        <v>-11.034018021234401</v>
       </c>
       <c r="I99">
         <v>-20.25643368445337</v>
@@ -5090,13 +5151,13 @@
         <v>-11.64529565217391</v>
       </c>
       <c r="M99">
-        <v>-20.80636974789916</v>
+        <v>-20.806369747899161</v>
       </c>
       <c r="N99">
         <v>-23.38355769230769</v>
       </c>
     </row>
-    <row r="100" spans="1:14">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5122,7 +5183,7 @@
         <v>-10.00081760280499</v>
       </c>
       <c r="I100">
-        <v>-20.33089373121351</v>
+        <v>-20.330893731213511</v>
       </c>
       <c r="J100">
         <v>-23.99861488483948</v>
@@ -5134,13 +5195,13 @@
         <v>-10.71157024793389</v>
       </c>
       <c r="M100">
-        <v>-21.05874579124579</v>
+        <v>-21.058745791245791</v>
       </c>
       <c r="N100">
-        <v>-22.99816738816739</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14">
+        <v>-22.998167388167388</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5166,10 +5227,10 @@
         <v>-10.00214137912109</v>
       </c>
       <c r="I101">
-        <v>-19.49327491038743</v>
+        <v>-19.493274910387431</v>
       </c>
       <c r="J101">
-        <v>-23.99453810208737</v>
+        <v>-23.994538102087368</v>
       </c>
       <c r="K101">
         <v>-14.84313596491228</v>
@@ -5178,13 +5239,13 @@
         <v>-10.44677835051546</v>
       </c>
       <c r="M101">
-        <v>-20.2140625</v>
+        <v>-20.214062500000001</v>
       </c>
       <c r="N101">
-        <v>-21.84944933920705</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
+        <v>-21.849449339207052</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5207,10 +5268,10 @@
         <v>-14.09</v>
       </c>
       <c r="H102">
-        <v>-10.00437138552008</v>
+        <v>-10.004371385520081</v>
       </c>
       <c r="I102">
-        <v>-19.69018893515472</v>
+        <v>-19.690188935154719</v>
       </c>
       <c r="J102">
         <v>-23.99567230743375</v>
@@ -5219,16 +5280,16 @@
         <v>-14.78407279029463</v>
       </c>
       <c r="L102">
-        <v>-24.20344594594594</v>
+        <v>-24.203445945945941</v>
       </c>
       <c r="M102">
-        <v>-20.26180530973451</v>
+        <v>-20.261805309734509</v>
       </c>
       <c r="N102">
-        <v>-22.89174907292954</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
+        <v>-22.891749072929539</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5248,31 +5309,31 @@
         <v>1000000</v>
       </c>
       <c r="G103">
-        <v>-17.99982977587564</v>
+        <v>-17.999829775875639</v>
       </c>
       <c r="H103">
         <v>-10.00802284559944</v>
       </c>
       <c r="I103">
-        <v>-23.88393243687995</v>
+        <v>-23.883932436879949</v>
       </c>
       <c r="J103">
-        <v>-22.6706869521279</v>
+        <v>-22.670686952127902</v>
       </c>
       <c r="K103">
-        <v>-18.33790419161677</v>
+        <v>-18.337904191616769</v>
       </c>
       <c r="L103">
         <v>-24.1691</v>
       </c>
       <c r="M103">
-        <v>-25.74751689189189</v>
+        <v>-25.747516891891891</v>
       </c>
       <c r="N103">
         <v>-25.61679487179487</v>
       </c>
     </row>
-    <row r="104" spans="1:14">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5292,31 +5353,31 @@
         <v>1000000</v>
       </c>
       <c r="G104">
-        <v>-14.2243005925162</v>
+        <v>-14.224300592516199</v>
       </c>
       <c r="H104">
-        <v>-10.00415301022806</v>
+        <v>-10.004153010228061</v>
       </c>
       <c r="I104">
-        <v>-21.79271611077827</v>
+        <v>-21.792716110778269</v>
       </c>
       <c r="J104">
-        <v>-23.99319617036329</v>
+        <v>-23.993196170363291</v>
       </c>
       <c r="K104">
         <v>-15.46819805194805</v>
       </c>
       <c r="L104">
-        <v>-24.00123040752351</v>
+        <v>-24.001230407523511</v>
       </c>
       <c r="M104">
-        <v>-23.6058239095315</v>
+        <v>-23.605823909531502</v>
       </c>
       <c r="N104">
-        <v>-25.20231557377049</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>-25.202315573770491</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5336,31 +5397,31 @@
         <v>1000000</v>
       </c>
       <c r="G105">
-        <v>-16.72000918978122</v>
+        <v>-16.720009189781219</v>
       </c>
       <c r="H105">
-        <v>-10.00063558945923</v>
+        <v>-10.000635589459231</v>
       </c>
       <c r="I105">
-        <v>-22.65635298688169</v>
+        <v>-22.656352986881689</v>
       </c>
       <c r="J105">
         <v>-23.99334477253635</v>
       </c>
       <c r="K105">
-        <v>-16.58783303730018</v>
+        <v>-16.587833037300179</v>
       </c>
       <c r="L105">
         <v>-11.74111392405063</v>
       </c>
       <c r="M105">
-        <v>-22.68292887029289</v>
+        <v>-22.682928870292891</v>
       </c>
       <c r="N105">
-        <v>-24.59130541871921</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>-24.591305418719209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5386,25 +5447,25 @@
         <v>-10.01672289966117</v>
       </c>
       <c r="I106">
-        <v>-22.79456366632767</v>
+        <v>-22.794563666327669</v>
       </c>
       <c r="J106">
         <v>-21.70286415901127</v>
       </c>
       <c r="K106">
-        <v>-16.26543859649123</v>
+        <v>-16.265438596491229</v>
       </c>
       <c r="L106">
         <v>-12.23748554913295</v>
       </c>
       <c r="M106">
-        <v>-22.89268361581921</v>
+        <v>-22.892683615819209</v>
       </c>
       <c r="N106">
-        <v>-22.27958158995816</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>-22.279581589958159</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5427,28 +5488,28 @@
         <v>-16.00652836063702</v>
       </c>
       <c r="H107">
-        <v>-10.00364803099649</v>
+        <v>-10.003648030996491</v>
       </c>
       <c r="I107">
-        <v>-22.01773914573012</v>
+        <v>-22.017739145730118</v>
       </c>
       <c r="J107">
-        <v>-23.99376965607713</v>
+        <v>-23.993769656077131</v>
       </c>
       <c r="K107">
-        <v>-16.12907368421052</v>
+        <v>-16.129073684210521</v>
       </c>
       <c r="L107">
-        <v>-23.23412076271186</v>
+        <v>-23.234120762711861</v>
       </c>
       <c r="M107">
-        <v>-21.96944695259593</v>
+        <v>-21.969446952595931</v>
       </c>
       <c r="N107">
         <v>-25.09090609555189</v>
       </c>
     </row>
-    <row r="108" spans="1:14">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5471,28 +5532,28 @@
         <v>-17.31954110385588</v>
       </c>
       <c r="H108">
-        <v>-10.00862923236996</v>
+        <v>-10.008629232369961</v>
       </c>
       <c r="I108">
-        <v>-21.81448233165908</v>
+        <v>-21.814482331659079</v>
       </c>
       <c r="J108">
         <v>-23.99091435207562</v>
       </c>
       <c r="K108">
-        <v>-17.36884146341463</v>
+        <v>-17.368841463414629</v>
       </c>
       <c r="L108">
-        <v>-23.72436386768448</v>
+        <v>-23.724363867684481</v>
       </c>
       <c r="M108">
         <v>-22.58430861723447</v>
       </c>
       <c r="N108">
-        <v>-24.93704769736842</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>-24.937047697368421</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5515,28 +5576,28 @@
         <v>-15.79524603937714</v>
       </c>
       <c r="H109">
-        <v>-10.00155651910289</v>
+        <v>-10.001556519102889</v>
       </c>
       <c r="I109">
-        <v>-20.42536824905338</v>
+        <v>-20.425368249053381</v>
       </c>
       <c r="J109">
-        <v>-23.99103367138829</v>
+        <v>-23.991033671388291</v>
       </c>
       <c r="K109">
         <v>-15.70719251336898</v>
       </c>
       <c r="L109">
-        <v>-23.02134615384615</v>
+        <v>-23.021346153846149</v>
       </c>
       <c r="M109">
-        <v>-21.53064655172414</v>
+        <v>-21.530646551724139</v>
       </c>
       <c r="N109">
         <v>-22.95333333333333</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5559,28 +5620,28 @@
         <v>-14.73077575848046</v>
       </c>
       <c r="H110">
-        <v>-10.00417067275485</v>
+        <v>-10.004170672754849</v>
       </c>
       <c r="I110">
-        <v>-19.75878015192226</v>
+        <v>-19.758780151922259</v>
       </c>
       <c r="J110">
-        <v>-23.99505892239084</v>
+        <v>-23.995058922390839</v>
       </c>
       <c r="K110">
-        <v>-15.43685413005272</v>
+        <v>-15.436854130052719</v>
       </c>
       <c r="L110">
         <v>-11.97327133479212</v>
       </c>
       <c r="M110">
-        <v>-20.9525046728972</v>
+        <v>-20.952504672897199</v>
       </c>
       <c r="N110">
         <v>-24.13</v>
       </c>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5603,10 +5664,10 @@
         <v>-12.62361456968249</v>
       </c>
       <c r="H111">
-        <v>-10.00840432239132</v>
+        <v>-10.008404322391319</v>
       </c>
       <c r="I111">
-        <v>-20.93417021630813</v>
+        <v>-20.934170216308129</v>
       </c>
       <c r="J111">
         <v>-23.99288037237033</v>
@@ -5618,13 +5679,13 @@
         <v>-1.097305555555556</v>
       </c>
       <c r="M111">
-        <v>-22.27591836734694</v>
+        <v>-22.275918367346939</v>
       </c>
       <c r="N111">
         <v>-22.34345882352941</v>
       </c>
     </row>
-    <row r="112" spans="1:14">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5647,28 +5708,28 @@
         <v>-13.08300816320631</v>
       </c>
       <c r="H112">
-        <v>-10.00524329677786</v>
+        <v>-10.005243296777859</v>
       </c>
       <c r="I112">
         <v>-20.42243497675749</v>
       </c>
       <c r="J112">
-        <v>-23.75033340796755</v>
+        <v>-23.750333407967549</v>
       </c>
       <c r="K112">
         <v>-14.87099025974026</v>
       </c>
       <c r="L112">
-        <v>-13.13866071428571</v>
+        <v>-13.138660714285709</v>
       </c>
       <c r="M112">
-        <v>-22.08267828843106</v>
+        <v>-22.082678288431062</v>
       </c>
       <c r="N112">
-        <v>-21.86667630057803</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>-21.866676300578028</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5691,28 +5752,28 @@
         <v>-12.04424757362208</v>
       </c>
       <c r="H113">
-        <v>-10.00947767281187</v>
+        <v>-10.009477672811871</v>
       </c>
       <c r="I113">
-        <v>-19.80776012738587</v>
+        <v>-19.807760127385869</v>
       </c>
       <c r="J113">
         <v>-23.99695377641163</v>
       </c>
       <c r="K113">
-        <v>-15.68384491114701</v>
+        <v>-15.683844911147011</v>
       </c>
       <c r="L113">
-        <v>-11.68598159509203</v>
+        <v>-11.685981595092031</v>
       </c>
       <c r="M113">
-        <v>-23.05455769230769</v>
+        <v>-23.054557692307689</v>
       </c>
       <c r="N113">
-        <v>-24.78899305555556</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>-24.788993055555562</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5732,13 +5793,13 @@
         <v>1000000</v>
       </c>
       <c r="G114">
-        <v>-17.94397910785914</v>
+        <v>-17.943979107859139</v>
       </c>
       <c r="H114">
         <v>-10.00497115624446</v>
       </c>
       <c r="I114">
-        <v>-22.5664893919403</v>
+        <v>-22.566489391940301</v>
       </c>
       <c r="J114">
         <v>-23.89261243709484</v>
@@ -5747,16 +5808,16 @@
         <v>-18.66925925925926</v>
       </c>
       <c r="L114">
-        <v>-23.62936440677966</v>
+        <v>-23.629364406779661</v>
       </c>
       <c r="M114">
-        <v>-20.7136375</v>
+        <v>-20.713637500000001</v>
       </c>
       <c r="N114">
-        <v>-24.96698916408669</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14">
+        <v>-24.966989164086691</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5776,16 +5837,16 @@
         <v>1000000</v>
       </c>
       <c r="G115">
-        <v>-14.32990560872232</v>
+        <v>-14.329905608722321</v>
       </c>
       <c r="H115">
-        <v>-10.0097953519271</v>
+        <v>-10.009795351927099</v>
       </c>
       <c r="I115">
-        <v>-22.12753547052004</v>
+        <v>-22.127535470520041</v>
       </c>
       <c r="J115">
-        <v>-23.99323439452865</v>
+        <v>-23.993234394528649</v>
       </c>
       <c r="K115">
         <v>-16.35689839572192</v>
@@ -5794,13 +5855,13 @@
         <v>-24.11856136820926</v>
       </c>
       <c r="M115">
-        <v>-24.76158333333333</v>
+        <v>-24.761583333333331</v>
       </c>
       <c r="N115">
-        <v>-26.17834775086505</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14">
+        <v>-26.178347750865051</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5823,28 +5884,28 @@
         <v>-15.97291505507954</v>
       </c>
       <c r="H116">
-        <v>-10.00656931128353</v>
+        <v>-10.006569311283529</v>
       </c>
       <c r="I116">
-        <v>-20.73298098394846</v>
+        <v>-20.732980983948458</v>
       </c>
       <c r="J116">
-        <v>-23.99696078529138</v>
+        <v>-23.996960785291382</v>
       </c>
       <c r="K116">
         <v>-14.86103221083455</v>
       </c>
       <c r="L116">
-        <v>-9.933635204081632</v>
+        <v>-9.9336352040816323</v>
       </c>
       <c r="M116">
-        <v>-20.28660094637224</v>
+        <v>-20.286600946372239</v>
       </c>
       <c r="N116">
-        <v>-22.44294488188977</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>-22.442944881889769</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5867,7 +5928,7 @@
         <v>-13.91600070189895</v>
       </c>
       <c r="H117">
-        <v>-10.00709576419768</v>
+        <v>-10.007095764197681</v>
       </c>
       <c r="I117">
         <v>-19.4587220544045</v>
@@ -5876,19 +5937,19 @@
         <v>-23.99493528980355</v>
       </c>
       <c r="K117">
-        <v>-14.26018433179724</v>
+        <v>-14.260184331797239</v>
       </c>
       <c r="L117">
-        <v>-16.60884384384384</v>
+        <v>-16.608843843843839</v>
       </c>
       <c r="M117">
-        <v>-19.86418848167539</v>
+        <v>-19.864188481675392</v>
       </c>
       <c r="N117">
         <v>-22.81066258351893</v>
       </c>
     </row>
-    <row r="118" spans="1:14">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5908,7 +5969,7 @@
         <v>378028</v>
       </c>
       <c r="G118">
-        <v>-13.31078354909626</v>
+        <v>-13.310783549096261</v>
       </c>
       <c r="H118">
         <v>-13.87332727007017</v>
@@ -5923,16 +5984,16 @@
         <v>-13.58555555555556</v>
       </c>
       <c r="L118">
-        <v>-13.668059566787</v>
+        <v>-13.668059566787001</v>
       </c>
       <c r="M118">
-        <v>-19.04140625</v>
+        <v>-19.041406250000001</v>
       </c>
       <c r="N118">
         <v>-23.13560514372163</v>
       </c>
     </row>
-    <row r="119" spans="1:14">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5955,28 +6016,28 @@
         <v>-13.15270928722755</v>
       </c>
       <c r="H119">
-        <v>-10.00355787526956</v>
+        <v>-10.003557875269561</v>
       </c>
       <c r="I119">
         <v>-20.41050240542917</v>
       </c>
       <c r="J119">
-        <v>-23.99157448302345</v>
+        <v>-23.991574483023449</v>
       </c>
       <c r="K119">
-        <v>-14.41308510638298</v>
+        <v>-14.413085106382979</v>
       </c>
       <c r="L119">
-        <v>-23.14050123762376</v>
+        <v>-23.140501237623759</v>
       </c>
       <c r="M119">
         <v>-20.95125628140703</v>
       </c>
       <c r="N119">
-        <v>-25.12662709497206</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14">
+        <v>-25.126627094972061</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5999,28 +6060,28 @@
         <v>-14.5</v>
       </c>
       <c r="H120">
-        <v>-10.0064936328981</v>
+        <v>-10.006493632898099</v>
       </c>
       <c r="I120">
-        <v>-19.44920725368496</v>
+        <v>-19.449207253684961</v>
       </c>
       <c r="J120">
-        <v>-23.99319649757986</v>
+        <v>-23.993196497579859</v>
       </c>
       <c r="K120">
         <v>-15.06708603896104</v>
       </c>
       <c r="L120">
-        <v>-29.65316202090592</v>
+        <v>-29.653162020905921</v>
       </c>
       <c r="M120">
         <v>-20.38158898305085</v>
       </c>
       <c r="N120">
-        <v>-24.0806338939198</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14">
+        <v>-24.080633893919799</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6046,10 +6107,10 @@
         <v>-10.93138574877066</v>
       </c>
       <c r="I121">
-        <v>-20.92852133564651</v>
+        <v>-20.928521335646511</v>
       </c>
       <c r="J121">
-        <v>-23.9903084435222</v>
+        <v>-23.990308443522199</v>
       </c>
       <c r="K121">
         <v>-15.44774834437086</v>
@@ -6058,13 +6119,13 @@
         <v>-14.45938432835821</v>
       </c>
       <c r="M121">
-        <v>-21.25907407407407</v>
+        <v>-21.259074074074071</v>
       </c>
       <c r="N121">
-        <v>-23.0570942408377</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14">
+        <v>-23.057094240837699</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -6084,7 +6145,7 @@
         <v>1000000</v>
       </c>
       <c r="G122">
-        <v>-14.96422652025453</v>
+        <v>-14.964226520254529</v>
       </c>
       <c r="H122">
         <v>-10.0977186755894</v>
@@ -6093,22 +6154,22 @@
         <v>-20.01450078007873</v>
       </c>
       <c r="J122">
-        <v>-23.99511933228576</v>
+        <v>-23.995119332285761</v>
       </c>
       <c r="K122">
-        <v>-14.04337060702876</v>
+        <v>-14.043370607028759</v>
       </c>
       <c r="L122">
         <v>-10.77612903225806</v>
       </c>
       <c r="M122">
-        <v>-19.47408566721582</v>
+        <v>-19.474085667215821</v>
       </c>
       <c r="N122">
-        <v>-23.11222440944882</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>-23.112224409448821</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6137,22 +6198,22 @@
         <v>-20.8763437666071</v>
       </c>
       <c r="J123">
-        <v>-22.65449715907329</v>
+        <v>-22.654497159073291</v>
       </c>
       <c r="K123">
         <v>-14.27511013215859</v>
       </c>
       <c r="L123">
-        <v>-28.99323008849558</v>
+        <v>-28.993230088495579</v>
       </c>
       <c r="M123">
-        <v>-19.7253164556962</v>
+        <v>-19.725316455696198</v>
       </c>
       <c r="N123">
         <v>-21.90665745856354</v>
       </c>
     </row>
-    <row r="124" spans="1:14">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6172,19 +6233,19 @@
         <v>1000000</v>
       </c>
       <c r="G124">
-        <v>-16.01768885617784</v>
+        <v>-16.017688856177841</v>
       </c>
       <c r="H124">
-        <v>-10.22693617185547</v>
+        <v>-10.226936171855471</v>
       </c>
       <c r="I124">
-        <v>-20.66674460064493</v>
+        <v>-20.666744600644929</v>
       </c>
       <c r="J124">
         <v>-23.99515973472851</v>
       </c>
       <c r="K124">
-        <v>-14.61884146341463</v>
+        <v>-14.618841463414631</v>
       </c>
       <c r="L124">
         <v>-12.40758620689655</v>
@@ -6196,7 +6257,7 @@
         <v>-23.04709827357237</v>
       </c>
     </row>
-    <row r="125" spans="1:14">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6219,28 +6280,28 @@
         <v>-15.85174746359975</v>
       </c>
       <c r="H125">
-        <v>-10.63847949668441</v>
+        <v>-10.638479496684409</v>
       </c>
       <c r="I125">
-        <v>-23.26712395360899</v>
+        <v>-23.267123953608991</v>
       </c>
       <c r="J125">
-        <v>-23.99347791089725</v>
+        <v>-23.993477910897251</v>
       </c>
       <c r="K125">
-        <v>-14.89137159533074</v>
+        <v>-14.891371595330741</v>
       </c>
       <c r="L125">
-        <v>-10.50891080617495</v>
+        <v>-10.508910806174949</v>
       </c>
       <c r="M125">
-        <v>-20.95191704035875</v>
+        <v>-20.951917040358751</v>
       </c>
       <c r="N125">
         <v>-24.56795641931684</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6266,25 +6327,25 @@
         <v>-10.00860656297275</v>
       </c>
       <c r="I126">
-        <v>-21.82031953986722</v>
+        <v>-21.820319539867221</v>
       </c>
       <c r="J126">
-        <v>-23.99907745597402</v>
+        <v>-23.999077455974021</v>
       </c>
       <c r="K126">
-        <v>-15.75703703703704</v>
+        <v>-15.757037037037041</v>
       </c>
       <c r="L126">
         <v>-12.025</v>
       </c>
       <c r="M126">
-        <v>-22.08875833333333</v>
+        <v>-22.088758333333331</v>
       </c>
       <c r="N126">
         <v>-23.92492727272727</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6307,28 +6368,28 @@
         <v>-15.4221811980963</v>
       </c>
       <c r="H127">
-        <v>-10.00668074960653</v>
+        <v>-10.006680749606531</v>
       </c>
       <c r="I127">
         <v>-20.61175386752593</v>
       </c>
       <c r="J127">
-        <v>-23.99182042133999</v>
+        <v>-23.991820421339991</v>
       </c>
       <c r="K127">
         <v>-15.09465986394558</v>
       </c>
       <c r="L127">
-        <v>-8.79110412926391</v>
+        <v>-8.7911041292639105</v>
       </c>
       <c r="M127">
         <v>-20.21215358931553</v>
       </c>
       <c r="N127">
-        <v>-22.8510593220339</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14">
+        <v>-22.851059322033901</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6354,25 +6415,25 @@
         <v>-10.87095925847068</v>
       </c>
       <c r="I128">
-        <v>-23.99723266434153</v>
+        <v>-23.997232664341531</v>
       </c>
       <c r="J128">
-        <v>-23.99287322498362</v>
+        <v>-23.992873224983619</v>
       </c>
       <c r="K128">
-        <v>-14.61462121212121</v>
+        <v>-14.614621212121209</v>
       </c>
       <c r="L128">
-        <v>-9.439459459459458</v>
+        <v>-9.4394594594594583</v>
       </c>
       <c r="M128">
-        <v>-19.9534693877551</v>
+        <v>-19.953469387755099</v>
       </c>
       <c r="N128">
         <v>-21.32625755743652</v>
       </c>
     </row>
-    <row r="129" spans="1:14">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6392,31 +6453,31 @@
         <v>1000000</v>
       </c>
       <c r="G129">
-        <v>-14.90443030297764</v>
+        <v>-14.904430302977641</v>
       </c>
       <c r="H129">
-        <v>-10.23480397808902</v>
+        <v>-10.234803978089021</v>
       </c>
       <c r="I129">
-        <v>-20.83732168518996</v>
+        <v>-20.837321685189959</v>
       </c>
       <c r="J129">
-        <v>-23.99625223050324</v>
+        <v>-23.996252230503242</v>
       </c>
       <c r="K129">
-        <v>-14.19517857142857</v>
+        <v>-14.195178571428571</v>
       </c>
       <c r="L129">
-        <v>-23.0999168207024</v>
+        <v>-23.099916820702401</v>
       </c>
       <c r="M129">
-        <v>-19.9511301369863</v>
+        <v>-19.951130136986301</v>
       </c>
       <c r="N129">
-        <v>-21.16738853503185</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>-21.167388535031851</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6436,7 +6497,7 @@
         <v>1000000</v>
       </c>
       <c r="G130">
-        <v>-15.83223135372861</v>
+        <v>-15.832231353728609</v>
       </c>
       <c r="H130">
         <v>-10.00067159742048</v>
@@ -6448,19 +6509,19 @@
         <v>-23.9966241823007</v>
       </c>
       <c r="K130">
-        <v>-14.72915413533834</v>
+        <v>-14.729154135338341</v>
       </c>
       <c r="L130">
-        <v>-11.06256880733945</v>
+        <v>-11.062568807339449</v>
       </c>
       <c r="M130">
-        <v>-20.25401639344262</v>
+        <v>-20.254016393442619</v>
       </c>
       <c r="N130">
-        <v>-23.32574971164937</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>-23.325749711649369</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6480,31 +6541,31 @@
         <v>1000000</v>
       </c>
       <c r="G131">
-        <v>-18.80873190678656</v>
+        <v>-18.808731906786559</v>
       </c>
       <c r="H131">
         <v>-10.00911655902862</v>
       </c>
       <c r="I131">
-        <v>-22.97065279607065</v>
+        <v>-22.970652796070649</v>
       </c>
       <c r="J131">
-        <v>-23.99134277089182</v>
+        <v>-23.991342770891819</v>
       </c>
       <c r="K131">
         <v>-18.17137711864407</v>
       </c>
       <c r="L131">
-        <v>-3.880499219968801</v>
+        <v>-3.8804992199688009</v>
       </c>
       <c r="M131">
-        <v>-21.98533742331288</v>
+        <v>-21.985337423312881</v>
       </c>
       <c r="N131">
-        <v>-20.34525862068966</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>-20.345258620689659</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6527,19 +6588,19 @@
         <v>-14.33088835676349</v>
       </c>
       <c r="H132">
-        <v>-10.00244600777916</v>
+        <v>-10.002446007779159</v>
       </c>
       <c r="I132">
-        <v>-19.83018577144142</v>
+        <v>-19.830185771441421</v>
       </c>
       <c r="J132">
-        <v>-23.99133181407443</v>
+        <v>-23.991331814074432</v>
       </c>
       <c r="K132">
-        <v>-14.65488434163701</v>
+        <v>-14.654884341637009</v>
       </c>
       <c r="L132">
-        <v>-23.43481225296443</v>
+        <v>-23.434812252964431</v>
       </c>
       <c r="M132">
         <v>-21.7853314917127</v>
@@ -6548,7 +6609,7 @@
         <v>-23.24587378640776</v>
       </c>
     </row>
-    <row r="133" spans="1:14">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6556,7 +6617,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:14">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
